--- a/beheer van issues/GitHub geregistreerde issues 2020-04-01 v1.7 - publicatie_voorIIMKL_PMKL.xlsx
+++ b/beheer van issues/GitHub geregistreerde issues 2020-04-01 v1.7 - publicatie_voorIIMKL_PMKL.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\beheer van issues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E9EF82-0D4C-4608-A3A7-37839F4A1E5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF70C130-D353-4547-9DDD-DF5F56ED31A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{FB381769-38D6-4077-9ECA-0963F4850A5C}"/>
+    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{FB381769-38D6-4077-9ECA-0963F4850A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="TCS - 01-04-2020" sheetId="3" r:id="rId1"/>
     <sheet name="IMKL-issues" sheetId="2" r:id="rId2"/>
     <sheet name="planning" sheetId="4" r:id="rId3"/>
+    <sheet name="Blad1" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'IMKL-issues'!$A$1:$I$1</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="310">
   <si>
     <t>Nr</t>
   </si>
@@ -1123,12 +1124,30 @@
   <si>
     <t>5)Vaststellen/publiceren</t>
   </si>
+  <si>
+    <t>sept</t>
+  </si>
+  <si>
+    <t>okt</t>
+  </si>
+  <si>
+    <t>4b) TCS review op consultatie</t>
+  </si>
+  <si>
+    <t>4a) Onwikkelen Release candidate</t>
+  </si>
+  <si>
+    <t>Objectcatalogus</t>
+  </si>
+  <si>
+    <t>Volgorde attributen voor visualisatie</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1247,8 +1266,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1363,8 +1389,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1705,12 +1743,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2035,6 +2101,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5310,8 +5409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D15E0F-0084-4586-B4A9-1ED5E149D483}">
   <dimension ref="A2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="A2:J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5609,4 +5708,1420 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7DF074-1205-4741-901C-DB9CCECBA167}">
+  <dimension ref="A1:BB21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
+    <col min="3" max="3" width="1.5703125" customWidth="1"/>
+    <col min="4" max="35" width="4.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A1" s="124"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="132" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="132" t="s">
+        <v>281</v>
+      </c>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="132" t="s">
+        <v>282</v>
+      </c>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="132" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="132" t="s">
+        <v>304</v>
+      </c>
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="132" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="132" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC1" s="124"/>
+      <c r="AD1" s="124"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="137" t="s">
+        <v>287</v>
+      </c>
+      <c r="AG1" s="135"/>
+      <c r="AH1" s="135"/>
+      <c r="AI1" s="135"/>
+      <c r="AJ1" s="136"/>
+      <c r="AK1" s="136"/>
+      <c r="AL1" s="136"/>
+      <c r="AM1" s="136"/>
+      <c r="AN1" s="136"/>
+      <c r="AO1" s="136"/>
+      <c r="AP1" s="136"/>
+      <c r="AQ1" s="136"/>
+      <c r="AR1" s="136"/>
+      <c r="AS1" s="136"/>
+      <c r="AT1" s="136"/>
+      <c r="AU1" s="136"/>
+      <c r="AV1" s="136"/>
+      <c r="AW1" s="136"/>
+      <c r="AX1" s="136"/>
+      <c r="AY1" s="136"/>
+      <c r="AZ1" s="136"/>
+      <c r="BA1" s="136"/>
+      <c r="BB1" s="136"/>
+    </row>
+    <row r="2" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="133">
+        <v>1</v>
+      </c>
+      <c r="E2" s="125">
+        <v>2</v>
+      </c>
+      <c r="F2" s="125">
+        <v>3</v>
+      </c>
+      <c r="G2" s="130">
+        <v>4</v>
+      </c>
+      <c r="H2" s="133">
+        <v>1</v>
+      </c>
+      <c r="I2" s="125">
+        <v>2</v>
+      </c>
+      <c r="J2" s="125">
+        <v>3</v>
+      </c>
+      <c r="K2" s="130">
+        <v>4</v>
+      </c>
+      <c r="L2" s="133">
+        <v>1</v>
+      </c>
+      <c r="M2" s="125">
+        <v>2</v>
+      </c>
+      <c r="N2" s="125">
+        <v>3</v>
+      </c>
+      <c r="O2" s="130">
+        <v>4</v>
+      </c>
+      <c r="P2" s="133">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="125">
+        <v>2</v>
+      </c>
+      <c r="R2" s="125">
+        <v>3</v>
+      </c>
+      <c r="S2" s="130">
+        <v>4</v>
+      </c>
+      <c r="T2" s="133">
+        <v>1</v>
+      </c>
+      <c r="U2" s="125">
+        <v>2</v>
+      </c>
+      <c r="V2" s="125">
+        <v>3</v>
+      </c>
+      <c r="W2" s="130">
+        <v>4</v>
+      </c>
+      <c r="X2" s="133">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="125">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="125">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="130">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="133">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="125">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="125">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="130">
+        <v>4</v>
+      </c>
+      <c r="AF2" s="137">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="135">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="135">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="135">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="136"/>
+      <c r="AL2" s="136"/>
+      <c r="AM2" s="136"/>
+      <c r="AN2" s="136"/>
+      <c r="AO2" s="136"/>
+      <c r="AP2" s="136"/>
+      <c r="AQ2" s="136"/>
+      <c r="AR2" s="136"/>
+      <c r="AS2" s="136"/>
+      <c r="AT2" s="136"/>
+      <c r="AU2" s="136"/>
+      <c r="AV2" s="136"/>
+      <c r="AW2" s="136"/>
+      <c r="AX2" s="136"/>
+      <c r="AY2" s="136"/>
+      <c r="AZ2" s="136"/>
+      <c r="BA2" s="136"/>
+      <c r="BB2" s="136"/>
+    </row>
+    <row r="3" spans="1:54" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="153" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="156"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127"/>
+      <c r="W3" s="131"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="127"/>
+      <c r="Z3" s="127"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="127"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="137"/>
+      <c r="AG3" s="135"/>
+      <c r="AH3" s="135"/>
+      <c r="AI3" s="135"/>
+      <c r="AJ3" s="136"/>
+      <c r="AK3" s="136"/>
+      <c r="AL3" s="136"/>
+      <c r="AM3" s="136"/>
+      <c r="AN3" s="136"/>
+      <c r="AO3" s="136"/>
+      <c r="AP3" s="136"/>
+      <c r="AQ3" s="136"/>
+      <c r="AR3" s="136"/>
+      <c r="AS3" s="136"/>
+      <c r="AT3" s="136"/>
+      <c r="AU3" s="136"/>
+      <c r="AV3" s="136"/>
+      <c r="AW3" s="136"/>
+      <c r="AX3" s="136"/>
+      <c r="AY3" s="136"/>
+      <c r="AZ3" s="136"/>
+      <c r="BA3" s="136"/>
+      <c r="BB3" s="136"/>
+    </row>
+    <row r="4" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="154" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" s="155"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="133"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="130"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="125"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="130"/>
+      <c r="AB4" s="133"/>
+      <c r="AC4" s="125"/>
+      <c r="AD4" s="125"/>
+      <c r="AE4" s="130"/>
+      <c r="AF4" s="137"/>
+      <c r="AG4" s="135"/>
+      <c r="AH4" s="135"/>
+      <c r="AI4" s="135"/>
+      <c r="AJ4" s="136"/>
+      <c r="AK4" s="136"/>
+      <c r="AL4" s="136"/>
+      <c r="AM4" s="136"/>
+      <c r="AN4" s="136"/>
+      <c r="AO4" s="136"/>
+      <c r="AP4" s="136"/>
+      <c r="AQ4" s="136"/>
+      <c r="AR4" s="136"/>
+      <c r="AS4" s="136"/>
+      <c r="AT4" s="136"/>
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="136"/>
+      <c r="AW4" s="136"/>
+      <c r="AX4" s="136"/>
+      <c r="AY4" s="136"/>
+      <c r="AZ4" s="136"/>
+      <c r="BA4" s="136"/>
+      <c r="BB4" s="136"/>
+    </row>
+    <row r="5" spans="1:54" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="153" t="s">
+        <v>301</v>
+      </c>
+      <c r="B5" s="144"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="146"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="131"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="131"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
+      <c r="AA5" s="131"/>
+      <c r="AB5" s="134"/>
+      <c r="AC5" s="127"/>
+      <c r="AD5" s="127"/>
+      <c r="AE5" s="131"/>
+      <c r="AF5" s="137"/>
+      <c r="AG5" s="135"/>
+      <c r="AH5" s="135"/>
+      <c r="AI5" s="135"/>
+      <c r="AJ5" s="136"/>
+      <c r="AK5" s="136"/>
+      <c r="AL5" s="136"/>
+      <c r="AM5" s="136"/>
+      <c r="AN5" s="136"/>
+      <c r="AO5" s="136"/>
+      <c r="AP5" s="136"/>
+      <c r="AQ5" s="136"/>
+      <c r="AR5" s="136"/>
+      <c r="AS5" s="136"/>
+      <c r="AT5" s="136"/>
+      <c r="AU5" s="136"/>
+      <c r="AV5" s="136"/>
+      <c r="AW5" s="136"/>
+      <c r="AX5" s="136"/>
+      <c r="AY5" s="136"/>
+      <c r="AZ5" s="136"/>
+      <c r="BA5" s="136"/>
+      <c r="BB5" s="136"/>
+    </row>
+    <row r="6" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="154" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="149"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="133"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="147"/>
+      <c r="T6" s="148"/>
+      <c r="U6" s="149"/>
+      <c r="V6" s="149"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="133"/>
+      <c r="Y6" s="125"/>
+      <c r="Z6" s="125"/>
+      <c r="AA6" s="130"/>
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="125"/>
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="130"/>
+      <c r="AF6" s="137"/>
+      <c r="AG6" s="135"/>
+      <c r="AH6" s="135"/>
+      <c r="AI6" s="135"/>
+      <c r="AJ6" s="136"/>
+      <c r="AK6" s="136"/>
+      <c r="AL6" s="136"/>
+      <c r="AM6" s="136"/>
+      <c r="AN6" s="136"/>
+      <c r="AO6" s="136"/>
+      <c r="AP6" s="136"/>
+      <c r="AQ6" s="136"/>
+      <c r="AR6" s="136"/>
+      <c r="AS6" s="136"/>
+      <c r="AT6" s="136"/>
+      <c r="AU6" s="136"/>
+      <c r="AV6" s="136"/>
+      <c r="AW6" s="136"/>
+      <c r="AX6" s="136"/>
+      <c r="AY6" s="136"/>
+      <c r="AZ6" s="136"/>
+      <c r="BA6" s="136"/>
+      <c r="BB6" s="136"/>
+    </row>
+    <row r="7" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="154" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" s="149"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="133"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="148"/>
+      <c r="U7" s="125"/>
+      <c r="V7" s="125"/>
+      <c r="W7" s="130"/>
+      <c r="X7" s="133"/>
+      <c r="Y7" s="125"/>
+      <c r="Z7" s="125"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="133"/>
+      <c r="AC7" s="125"/>
+      <c r="AD7" s="125"/>
+      <c r="AE7" s="130"/>
+      <c r="AF7" s="137"/>
+      <c r="AG7" s="135"/>
+      <c r="AH7" s="135"/>
+      <c r="AI7" s="135"/>
+      <c r="AJ7" s="136"/>
+      <c r="AK7" s="136"/>
+      <c r="AL7" s="136"/>
+      <c r="AM7" s="136"/>
+      <c r="AN7" s="136"/>
+      <c r="AO7" s="136"/>
+      <c r="AP7" s="136"/>
+      <c r="AQ7" s="136"/>
+      <c r="AR7" s="136"/>
+      <c r="AS7" s="136"/>
+      <c r="AT7" s="136"/>
+      <c r="AU7" s="136"/>
+      <c r="AV7" s="136"/>
+      <c r="AW7" s="136"/>
+      <c r="AX7" s="136"/>
+      <c r="AY7" s="136"/>
+      <c r="AZ7" s="136"/>
+      <c r="BA7" s="136"/>
+      <c r="BB7" s="136"/>
+    </row>
+    <row r="8" spans="1:54" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="153" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="152"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="131"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="131"/>
+      <c r="T8" s="134"/>
+      <c r="U8" s="127"/>
+      <c r="V8" s="127"/>
+      <c r="W8" s="150"/>
+      <c r="X8" s="151"/>
+      <c r="Y8" s="152"/>
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="131"/>
+      <c r="AB8" s="134"/>
+      <c r="AC8" s="127"/>
+      <c r="AD8" s="127"/>
+      <c r="AE8" s="131"/>
+      <c r="AF8" s="137"/>
+      <c r="AG8" s="135"/>
+      <c r="AH8" s="135"/>
+      <c r="AI8" s="135"/>
+      <c r="AJ8" s="136"/>
+      <c r="AK8" s="136"/>
+      <c r="AL8" s="136"/>
+      <c r="AM8" s="136"/>
+      <c r="AN8" s="136"/>
+      <c r="AO8" s="136"/>
+      <c r="AP8" s="136"/>
+      <c r="AQ8" s="136"/>
+      <c r="AR8" s="136"/>
+      <c r="AS8" s="136"/>
+      <c r="AT8" s="136"/>
+      <c r="AU8" s="136"/>
+      <c r="AV8" s="136"/>
+      <c r="AW8" s="136"/>
+      <c r="AX8" s="136"/>
+      <c r="AY8" s="136"/>
+      <c r="AZ8" s="136"/>
+      <c r="BA8" s="136"/>
+      <c r="BB8" s="136"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A9" s="124"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="129"/>
+      <c r="P9" s="132"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="124"/>
+      <c r="S9" s="129"/>
+      <c r="T9" s="132"/>
+      <c r="U9" s="124"/>
+      <c r="V9" s="124"/>
+      <c r="W9" s="129"/>
+      <c r="X9" s="132"/>
+      <c r="Y9" s="124"/>
+      <c r="Z9" s="124"/>
+      <c r="AA9" s="129"/>
+      <c r="AB9" s="132"/>
+      <c r="AC9" s="124"/>
+      <c r="AD9" s="124"/>
+      <c r="AE9" s="129"/>
+      <c r="AF9" s="137"/>
+      <c r="AG9" s="135"/>
+      <c r="AH9" s="135"/>
+      <c r="AI9" s="135"/>
+      <c r="AJ9" s="136"/>
+      <c r="AK9" s="136"/>
+      <c r="AL9" s="136"/>
+      <c r="AM9" s="136"/>
+      <c r="AN9" s="136"/>
+      <c r="AO9" s="136"/>
+      <c r="AP9" s="136"/>
+      <c r="AQ9" s="136"/>
+      <c r="AR9" s="136"/>
+      <c r="AS9" s="136"/>
+      <c r="AT9" s="136"/>
+      <c r="AU9" s="136"/>
+      <c r="AV9" s="136"/>
+      <c r="AW9" s="136"/>
+      <c r="AX9" s="136"/>
+      <c r="AY9" s="136"/>
+      <c r="AZ9" s="136"/>
+      <c r="BA9" s="136"/>
+      <c r="BB9" s="136"/>
+    </row>
+    <row r="10" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="125" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" s="125"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="133" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="G10" s="130"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="130"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="130"/>
+      <c r="T10" s="133"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="130"/>
+      <c r="X10" s="133"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="125"/>
+      <c r="AA10" s="130"/>
+      <c r="AB10" s="133"/>
+      <c r="AC10" s="125"/>
+      <c r="AD10" s="125"/>
+      <c r="AE10" s="130"/>
+      <c r="AF10" s="137"/>
+      <c r="AG10" s="135"/>
+      <c r="AH10" s="135"/>
+      <c r="AI10" s="135"/>
+      <c r="AJ10" s="136"/>
+      <c r="AK10" s="136"/>
+      <c r="AL10" s="136"/>
+      <c r="AM10" s="136"/>
+      <c r="AN10" s="136"/>
+      <c r="AO10" s="136"/>
+      <c r="AP10" s="136"/>
+      <c r="AQ10" s="136"/>
+      <c r="AR10" s="136"/>
+      <c r="AS10" s="136"/>
+      <c r="AT10" s="136"/>
+      <c r="AU10" s="136"/>
+      <c r="AV10" s="136"/>
+      <c r="AW10" s="136"/>
+      <c r="AX10" s="136"/>
+      <c r="AY10" s="136"/>
+      <c r="AZ10" s="136"/>
+      <c r="BA10" s="136"/>
+      <c r="BB10" s="136"/>
+    </row>
+    <row r="11" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="125" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" s="125"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="G11" s="130" t="s">
+        <v>296</v>
+      </c>
+      <c r="H11" s="133" t="s">
+        <v>296</v>
+      </c>
+      <c r="I11" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="J11" s="125"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="125"/>
+      <c r="O11" s="130"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="125"/>
+      <c r="R11" s="125"/>
+      <c r="S11" s="130"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="125"/>
+      <c r="V11" s="125"/>
+      <c r="W11" s="130"/>
+      <c r="X11" s="133"/>
+      <c r="Y11" s="125"/>
+      <c r="Z11" s="125"/>
+      <c r="AA11" s="130"/>
+      <c r="AB11" s="133"/>
+      <c r="AC11" s="125"/>
+      <c r="AD11" s="125"/>
+      <c r="AE11" s="130"/>
+      <c r="AF11" s="137"/>
+      <c r="AG11" s="135"/>
+      <c r="AH11" s="135"/>
+      <c r="AI11" s="135"/>
+      <c r="AJ11" s="136"/>
+      <c r="AK11" s="136"/>
+      <c r="AL11" s="136"/>
+      <c r="AM11" s="136"/>
+      <c r="AN11" s="136"/>
+      <c r="AO11" s="136"/>
+      <c r="AP11" s="136"/>
+      <c r="AQ11" s="136"/>
+      <c r="AR11" s="136"/>
+      <c r="AS11" s="136"/>
+      <c r="AT11" s="136"/>
+      <c r="AU11" s="136"/>
+      <c r="AV11" s="136"/>
+      <c r="AW11" s="136"/>
+      <c r="AX11" s="136"/>
+      <c r="AY11" s="136"/>
+      <c r="AZ11" s="136"/>
+      <c r="BA11" s="136"/>
+      <c r="BB11" s="136"/>
+    </row>
+    <row r="12" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="125" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" s="125"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="G12" s="130" t="s">
+        <v>296</v>
+      </c>
+      <c r="H12" s="133" t="s">
+        <v>296</v>
+      </c>
+      <c r="I12" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="J12" s="125"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="125"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="125"/>
+      <c r="R12" s="125"/>
+      <c r="S12" s="130"/>
+      <c r="T12" s="133"/>
+      <c r="U12" s="125"/>
+      <c r="V12" s="125"/>
+      <c r="W12" s="130"/>
+      <c r="X12" s="133"/>
+      <c r="Y12" s="125"/>
+      <c r="Z12" s="125"/>
+      <c r="AA12" s="130"/>
+      <c r="AB12" s="133"/>
+      <c r="AC12" s="125"/>
+      <c r="AD12" s="125"/>
+      <c r="AE12" s="130"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="135"/>
+      <c r="AH12" s="135"/>
+      <c r="AI12" s="135"/>
+      <c r="AJ12" s="136"/>
+      <c r="AK12" s="136"/>
+      <c r="AL12" s="136"/>
+      <c r="AM12" s="136"/>
+      <c r="AN12" s="136"/>
+      <c r="AO12" s="136"/>
+      <c r="AP12" s="136"/>
+      <c r="AQ12" s="136"/>
+      <c r="AR12" s="136"/>
+      <c r="AS12" s="136"/>
+      <c r="AT12" s="136"/>
+      <c r="AU12" s="136"/>
+      <c r="AV12" s="136"/>
+      <c r="AW12" s="136"/>
+      <c r="AX12" s="136"/>
+      <c r="AY12" s="136"/>
+      <c r="AZ12" s="136"/>
+      <c r="BA12" s="136"/>
+      <c r="BB12" s="136"/>
+    </row>
+    <row r="13" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="125" t="s">
+        <v>289</v>
+      </c>
+      <c r="B13" s="125"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="F13" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="G13" s="130" t="s">
+        <v>296</v>
+      </c>
+      <c r="H13" s="133" t="s">
+        <v>296</v>
+      </c>
+      <c r="I13" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="J13" s="125"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="125"/>
+      <c r="O13" s="130"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="125"/>
+      <c r="R13" s="125"/>
+      <c r="S13" s="130"/>
+      <c r="T13" s="133"/>
+      <c r="U13" s="125"/>
+      <c r="V13" s="125"/>
+      <c r="W13" s="130"/>
+      <c r="X13" s="133"/>
+      <c r="Y13" s="125"/>
+      <c r="Z13" s="125"/>
+      <c r="AA13" s="130"/>
+      <c r="AB13" s="133"/>
+      <c r="AC13" s="125"/>
+      <c r="AD13" s="125"/>
+      <c r="AE13" s="130"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="135"/>
+      <c r="AH13" s="135"/>
+      <c r="AI13" s="135"/>
+      <c r="AJ13" s="136"/>
+      <c r="AK13" s="136"/>
+      <c r="AL13" s="136"/>
+      <c r="AM13" s="136"/>
+      <c r="AN13" s="136"/>
+      <c r="AO13" s="136"/>
+      <c r="AP13" s="136"/>
+      <c r="AQ13" s="136"/>
+      <c r="AR13" s="136"/>
+      <c r="AS13" s="136"/>
+      <c r="AT13" s="136"/>
+      <c r="AU13" s="136"/>
+      <c r="AV13" s="136"/>
+      <c r="AW13" s="136"/>
+      <c r="AX13" s="136"/>
+      <c r="AY13" s="136"/>
+      <c r="AZ13" s="136"/>
+      <c r="BA13" s="136"/>
+      <c r="BB13" s="136"/>
+    </row>
+    <row r="14" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="125" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" s="125"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="G14" s="130" t="s">
+        <v>296</v>
+      </c>
+      <c r="H14" s="133" t="s">
+        <v>296</v>
+      </c>
+      <c r="I14" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="J14" s="125"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="130"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
+      <c r="S14" s="130"/>
+      <c r="T14" s="133"/>
+      <c r="U14" s="125"/>
+      <c r="V14" s="125"/>
+      <c r="W14" s="130"/>
+      <c r="X14" s="133"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="125"/>
+      <c r="AA14" s="130"/>
+      <c r="AB14" s="133"/>
+      <c r="AC14" s="125"/>
+      <c r="AD14" s="125"/>
+      <c r="AE14" s="130"/>
+      <c r="AF14" s="137"/>
+      <c r="AG14" s="135"/>
+      <c r="AH14" s="135"/>
+      <c r="AI14" s="135"/>
+      <c r="AJ14" s="136"/>
+      <c r="AK14" s="136"/>
+      <c r="AL14" s="136"/>
+      <c r="AM14" s="136"/>
+      <c r="AN14" s="136"/>
+      <c r="AO14" s="136"/>
+      <c r="AP14" s="136"/>
+      <c r="AQ14" s="136"/>
+      <c r="AR14" s="136"/>
+      <c r="AS14" s="136"/>
+      <c r="AT14" s="136"/>
+      <c r="AU14" s="136"/>
+      <c r="AV14" s="136"/>
+      <c r="AW14" s="136"/>
+      <c r="AX14" s="136"/>
+      <c r="AY14" s="136"/>
+      <c r="AZ14" s="136"/>
+      <c r="BA14" s="136"/>
+      <c r="BB14" s="136"/>
+    </row>
+    <row r="15" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="125" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" s="125"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="F15" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="G15" s="130" t="s">
+        <v>296</v>
+      </c>
+      <c r="H15" s="133" t="s">
+        <v>296</v>
+      </c>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="133"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="130"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="125"/>
+      <c r="R15" s="125"/>
+      <c r="S15" s="130"/>
+      <c r="T15" s="133"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="125"/>
+      <c r="W15" s="130"/>
+      <c r="X15" s="133"/>
+      <c r="Y15" s="125"/>
+      <c r="Z15" s="125"/>
+      <c r="AA15" s="130"/>
+      <c r="AB15" s="133"/>
+      <c r="AC15" s="125"/>
+      <c r="AD15" s="125"/>
+      <c r="AE15" s="130"/>
+      <c r="AF15" s="137"/>
+      <c r="AG15" s="135"/>
+      <c r="AH15" s="135"/>
+      <c r="AI15" s="135"/>
+      <c r="AJ15" s="136"/>
+      <c r="AK15" s="136"/>
+      <c r="AL15" s="136"/>
+      <c r="AM15" s="136"/>
+      <c r="AN15" s="136"/>
+      <c r="AO15" s="136"/>
+      <c r="AP15" s="136"/>
+      <c r="AQ15" s="136"/>
+      <c r="AR15" s="136"/>
+      <c r="AS15" s="136"/>
+      <c r="AT15" s="136"/>
+      <c r="AU15" s="136"/>
+      <c r="AV15" s="136"/>
+      <c r="AW15" s="136"/>
+      <c r="AX15" s="136"/>
+      <c r="AY15" s="136"/>
+      <c r="AZ15" s="136"/>
+      <c r="BA15" s="136"/>
+      <c r="BB15" s="136"/>
+    </row>
+    <row r="16" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="125" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="125"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="F16" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="G16" s="130" t="s">
+        <v>296</v>
+      </c>
+      <c r="H16" s="133" t="s">
+        <v>296</v>
+      </c>
+      <c r="I16" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="J16" s="125"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="125"/>
+      <c r="S16" s="130"/>
+      <c r="T16" s="133"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125"/>
+      <c r="W16" s="130"/>
+      <c r="X16" s="133"/>
+      <c r="Y16" s="125"/>
+      <c r="Z16" s="125"/>
+      <c r="AA16" s="130"/>
+      <c r="AB16" s="133"/>
+      <c r="AC16" s="125"/>
+      <c r="AD16" s="125"/>
+      <c r="AE16" s="130"/>
+      <c r="AF16" s="137"/>
+      <c r="AG16" s="135"/>
+      <c r="AH16" s="135"/>
+      <c r="AI16" s="135"/>
+      <c r="AJ16" s="136"/>
+      <c r="AK16" s="136"/>
+      <c r="AL16" s="136"/>
+      <c r="AM16" s="136"/>
+      <c r="AN16" s="136"/>
+      <c r="AO16" s="136"/>
+      <c r="AP16" s="136"/>
+      <c r="AQ16" s="136"/>
+      <c r="AR16" s="136"/>
+      <c r="AS16" s="136"/>
+      <c r="AT16" s="136"/>
+      <c r="AU16" s="136"/>
+      <c r="AV16" s="136"/>
+      <c r="AW16" s="136"/>
+      <c r="AX16" s="136"/>
+      <c r="AY16" s="136"/>
+      <c r="AZ16" s="136"/>
+      <c r="BA16" s="136"/>
+      <c r="BB16" s="136"/>
+    </row>
+    <row r="17" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="125" t="s">
+        <v>293</v>
+      </c>
+      <c r="B17" s="125"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="F17" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="G17" s="130" t="s">
+        <v>296</v>
+      </c>
+      <c r="H17" s="133" t="s">
+        <v>296</v>
+      </c>
+      <c r="I17" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="J17" s="125"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="130"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="130"/>
+      <c r="T17" s="133"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="130"/>
+      <c r="X17" s="133"/>
+      <c r="Y17" s="125"/>
+      <c r="Z17" s="125"/>
+      <c r="AA17" s="130"/>
+      <c r="AB17" s="133"/>
+      <c r="AC17" s="125"/>
+      <c r="AD17" s="125"/>
+      <c r="AE17" s="130"/>
+      <c r="AF17" s="137"/>
+      <c r="AG17" s="135"/>
+      <c r="AH17" s="135"/>
+      <c r="AI17" s="135"/>
+      <c r="AJ17" s="136"/>
+      <c r="AK17" s="136"/>
+      <c r="AL17" s="136"/>
+      <c r="AM17" s="136"/>
+      <c r="AN17" s="136"/>
+      <c r="AO17" s="136"/>
+      <c r="AP17" s="136"/>
+      <c r="AQ17" s="136"/>
+      <c r="AR17" s="136"/>
+      <c r="AS17" s="136"/>
+      <c r="AT17" s="136"/>
+      <c r="AU17" s="136"/>
+      <c r="AV17" s="136"/>
+      <c r="AW17" s="136"/>
+      <c r="AX17" s="136"/>
+      <c r="AY17" s="136"/>
+      <c r="AZ17" s="136"/>
+      <c r="BA17" s="136"/>
+      <c r="BB17" s="136"/>
+    </row>
+    <row r="18" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="125" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" s="125"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="133" t="s">
+        <v>296</v>
+      </c>
+      <c r="E18" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="F18" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" s="130" t="s">
+        <v>296</v>
+      </c>
+      <c r="H18" s="133"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
+      <c r="S18" s="130"/>
+      <c r="T18" s="133"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
+      <c r="W18" s="130"/>
+      <c r="X18" s="133"/>
+      <c r="Y18" s="125"/>
+      <c r="Z18" s="125"/>
+      <c r="AA18" s="130"/>
+      <c r="AB18" s="133"/>
+      <c r="AC18" s="125"/>
+      <c r="AD18" s="125"/>
+      <c r="AE18" s="130"/>
+      <c r="AF18" s="137"/>
+      <c r="AG18" s="135"/>
+      <c r="AH18" s="135"/>
+      <c r="AI18" s="135"/>
+      <c r="AJ18" s="136"/>
+      <c r="AK18" s="136"/>
+      <c r="AL18" s="136"/>
+      <c r="AM18" s="136"/>
+      <c r="AN18" s="136"/>
+      <c r="AO18" s="136"/>
+      <c r="AP18" s="136"/>
+      <c r="AQ18" s="136"/>
+      <c r="AR18" s="136"/>
+      <c r="AS18" s="136"/>
+      <c r="AT18" s="136"/>
+      <c r="AU18" s="136"/>
+      <c r="AV18" s="136"/>
+      <c r="AW18" s="136"/>
+      <c r="AX18" s="136"/>
+      <c r="AY18" s="136"/>
+      <c r="AZ18" s="136"/>
+      <c r="BA18" s="136"/>
+      <c r="BB18" s="136"/>
+    </row>
+    <row r="19" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="125" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19" s="125"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="F19" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="G19" s="130" t="s">
+        <v>296</v>
+      </c>
+      <c r="H19" s="133" t="s">
+        <v>296</v>
+      </c>
+      <c r="I19" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="J19" s="125"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="125"/>
+      <c r="S19" s="130"/>
+      <c r="T19" s="133"/>
+      <c r="U19" s="125"/>
+      <c r="V19" s="125"/>
+      <c r="W19" s="130"/>
+      <c r="X19" s="133"/>
+      <c r="Y19" s="125"/>
+      <c r="Z19" s="125"/>
+      <c r="AA19" s="130"/>
+      <c r="AB19" s="133"/>
+      <c r="AC19" s="125"/>
+      <c r="AD19" s="125"/>
+      <c r="AE19" s="130"/>
+      <c r="AF19" s="137"/>
+      <c r="AG19" s="135"/>
+      <c r="AH19" s="135"/>
+      <c r="AI19" s="135"/>
+      <c r="AJ19" s="136"/>
+      <c r="AK19" s="136"/>
+      <c r="AL19" s="136"/>
+      <c r="AM19" s="136"/>
+      <c r="AN19" s="136"/>
+      <c r="AO19" s="136"/>
+      <c r="AP19" s="136"/>
+      <c r="AQ19" s="136"/>
+      <c r="AR19" s="136"/>
+      <c r="AS19" s="136"/>
+      <c r="AT19" s="136"/>
+      <c r="AU19" s="136"/>
+      <c r="AV19" s="136"/>
+      <c r="AW19" s="136"/>
+      <c r="AX19" s="136"/>
+      <c r="AY19" s="136"/>
+      <c r="AZ19" s="136"/>
+      <c r="BA19" s="136"/>
+      <c r="BB19" s="136"/>
+    </row>
+    <row r="20" spans="1:54" s="126" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="125" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" s="125"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="F20" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="G20" s="130" t="s">
+        <v>296</v>
+      </c>
+      <c r="H20" s="133" t="s">
+        <v>296</v>
+      </c>
+      <c r="I20" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="J20" s="125"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="125"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="133"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="125"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="133"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="125"/>
+      <c r="W20" s="130"/>
+      <c r="X20" s="133"/>
+      <c r="Y20" s="125"/>
+      <c r="Z20" s="125"/>
+      <c r="AA20" s="130"/>
+      <c r="AB20" s="133"/>
+      <c r="AC20" s="125"/>
+      <c r="AD20" s="125"/>
+      <c r="AE20" s="130"/>
+      <c r="AF20" s="137"/>
+      <c r="AG20" s="135"/>
+      <c r="AH20" s="135"/>
+      <c r="AI20" s="135"/>
+      <c r="AJ20" s="136"/>
+      <c r="AK20" s="136"/>
+      <c r="AL20" s="136"/>
+      <c r="AM20" s="136"/>
+      <c r="AN20" s="136"/>
+      <c r="AO20" s="136"/>
+      <c r="AP20" s="136"/>
+      <c r="AQ20" s="136"/>
+      <c r="AR20" s="136"/>
+      <c r="AS20" s="136"/>
+      <c r="AT20" s="136"/>
+      <c r="AU20" s="136"/>
+      <c r="AV20" s="136"/>
+      <c r="AW20" s="136"/>
+      <c r="AX20" s="136"/>
+      <c r="AY20" s="136"/>
+      <c r="AZ20" s="136"/>
+      <c r="BA20" s="136"/>
+      <c r="BB20" s="136"/>
+    </row>
+    <row r="21" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="125" t="s">
+        <v>298</v>
+      </c>
+      <c r="B21" s="125"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="133" t="s">
+        <v>296</v>
+      </c>
+      <c r="I21" s="125" t="s">
+        <v>296</v>
+      </c>
+      <c r="J21" s="125"/>
+      <c r="K21" s="130"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="125"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="125"/>
+      <c r="S21" s="130"/>
+      <c r="T21" s="133"/>
+      <c r="U21" s="125"/>
+      <c r="V21" s="125"/>
+      <c r="W21" s="130"/>
+      <c r="X21" s="133"/>
+      <c r="Y21" s="125"/>
+      <c r="Z21" s="125"/>
+      <c r="AA21" s="130"/>
+      <c r="AB21" s="133"/>
+      <c r="AC21" s="125"/>
+      <c r="AD21" s="125"/>
+      <c r="AE21" s="130"/>
+      <c r="AF21" s="137"/>
+      <c r="AG21" s="135"/>
+      <c r="AH21" s="135"/>
+      <c r="AI21" s="135"/>
+      <c r="AJ21" s="136"/>
+      <c r="AK21" s="136"/>
+      <c r="AL21" s="136"/>
+      <c r="AM21" s="136"/>
+      <c r="AN21" s="136"/>
+      <c r="AO21" s="136"/>
+      <c r="AP21" s="136"/>
+      <c r="AQ21" s="136"/>
+      <c r="AR21" s="136"/>
+      <c r="AS21" s="136"/>
+      <c r="AT21" s="136"/>
+      <c r="AU21" s="136"/>
+      <c r="AV21" s="136"/>
+      <c r="AW21" s="136"/>
+      <c r="AX21" s="136"/>
+      <c r="AY21" s="136"/>
+      <c r="AZ21" s="136"/>
+      <c r="BA21" s="136"/>
+      <c r="BB21" s="136"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/beheer van issues/GitHub geregistreerde issues 2020-04-01 v1.7 - publicatie_voorIIMKL_PMKL.xlsx
+++ b/beheer van issues/GitHub geregistreerde issues 2020-04-01 v1.7 - publicatie_voorIIMKL_PMKL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\beheer van issues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF70C130-D353-4547-9DDD-DF5F56ED31A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D69F15-8F85-4913-963E-F04CE707CC07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{FB381769-38D6-4077-9ECA-0963F4850A5C}"/>
+    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" xr2:uid="{FB381769-38D6-4077-9ECA-0963F4850A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="TCS - 01-04-2020" sheetId="3" r:id="rId1"/>
@@ -2457,7 +2457,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4651,7 +4651,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
@@ -5714,7 +5714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7DF074-1205-4741-901C-DB9CCECBA167}">
   <dimension ref="A1:BB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>

--- a/beheer van issues/GitHub geregistreerde issues 2020-04-01 v1.7 - publicatie_voorIIMKL_PMKL.xlsx
+++ b/beheer van issues/GitHub geregistreerde issues 2020-04-01 v1.7 - publicatie_voorIIMKL_PMKL.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\beheer van issues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D69F15-8F85-4913-963E-F04CE707CC07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5857D2D6-48EC-478A-BA7A-5B820459F284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" xr2:uid="{FB381769-38D6-4077-9ECA-0963F4850A5C}"/>
+    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{FB381769-38D6-4077-9ECA-0963F4850A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="TCS - 01-04-2020" sheetId="3" r:id="rId1"/>
     <sheet name="IMKL-issues" sheetId="2" r:id="rId2"/>
-    <sheet name="planning" sheetId="4" r:id="rId3"/>
-    <sheet name="Blad1" sheetId="5" r:id="rId4"/>
+    <sheet name="Planning" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'IMKL-issues'!$A$1:$I$1</definedName>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="307">
   <si>
     <t>Nr</t>
   </si>
@@ -1065,12 +1064,6 @@
     <t>aug</t>
   </si>
   <si>
-    <t>sep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">okt </t>
-  </si>
-  <si>
     <t>nov</t>
   </si>
   <si>
@@ -1117,9 +1110,6 @@
   </si>
   <si>
     <t>3)Consultatie</t>
-  </si>
-  <si>
-    <t>4)Release candidate</t>
   </si>
   <si>
     <t>5)Vaststellen/publiceren</t>
@@ -1402,7 +1392,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1619,131 +1609,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color auto="1"/>
       </left>
@@ -1776,7 +1641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2078,57 +1943,34 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2457,7 +2299,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5406,316 +5248,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D15E0F-0084-4586-B4A9-1ED5E149D483}">
-  <dimension ref="A2:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="118"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="102" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" s="102" t="s">
-        <v>281</v>
-      </c>
-      <c r="E2" s="102" t="s">
-        <v>282</v>
-      </c>
-      <c r="F2" s="102" t="s">
-        <v>283</v>
-      </c>
-      <c r="G2" s="102" t="s">
-        <v>284</v>
-      </c>
-      <c r="H2" s="102" t="s">
-        <v>285</v>
-      </c>
-      <c r="I2" s="102" t="s">
-        <v>286</v>
-      </c>
-      <c r="J2" s="103" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="119" t="s">
-        <v>299</v>
-      </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="107"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
-        <v>300</v>
-      </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="110"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="119" t="s">
-        <v>301</v>
-      </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="107"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
-        <v>302</v>
-      </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="110"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="s">
-        <v>303</v>
-      </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="107"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="121"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="113"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="122" t="s">
-        <v>288</v>
-      </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="D9" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="110"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="122" t="s">
-        <v>290</v>
-      </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="D10" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="110"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="122" t="s">
-        <v>289</v>
-      </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="D11" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="110"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="122" t="s">
-        <v>292</v>
-      </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="D12" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="110"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="122" t="s">
-        <v>291</v>
-      </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="D13" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="122" t="s">
-        <v>297</v>
-      </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="110"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="122" t="s">
-        <v>293</v>
-      </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="D15" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="110"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="122" t="s">
-        <v>294</v>
-      </c>
-      <c r="B16" s="114"/>
-      <c r="C16" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="D16" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="110"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="122" t="s">
-        <v>295</v>
-      </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="D17" s="109" t="s">
-        <v>296</v>
-      </c>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="110"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="123" t="s">
-        <v>298</v>
-      </c>
-      <c r="B18" s="115"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116" t="s">
-        <v>296</v>
-      </c>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="117"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7DF074-1205-4741-901C-DB9CCECBA167}">
   <dimension ref="A1:BB21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE21" sqref="A1:AE21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5727,1398 +5264,1398 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A1" s="124"/>
-      <c r="B1" s="124"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="132" t="s">
+      <c r="A1" s="101"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="109" t="s">
         <v>280</v>
       </c>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="132" t="s">
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="109" t="s">
         <v>281</v>
       </c>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="132" t="s">
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="109" t="s">
         <v>282</v>
       </c>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="132" t="s">
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="109" t="s">
         <v>283</v>
       </c>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="132" t="s">
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="109" t="s">
+        <v>301</v>
+      </c>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="109" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="101"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="114" t="s">
+        <v>285</v>
+      </c>
+      <c r="AG1" s="112"/>
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112"/>
+      <c r="AJ1" s="113"/>
+      <c r="AK1" s="113"/>
+      <c r="AL1" s="113"/>
+      <c r="AM1" s="113"/>
+      <c r="AN1" s="113"/>
+      <c r="AO1" s="113"/>
+      <c r="AP1" s="113"/>
+      <c r="AQ1" s="113"/>
+      <c r="AR1" s="113"/>
+      <c r="AS1" s="113"/>
+      <c r="AT1" s="113"/>
+      <c r="AU1" s="113"/>
+      <c r="AV1" s="113"/>
+      <c r="AW1" s="113"/>
+      <c r="AX1" s="113"/>
+      <c r="AY1" s="113"/>
+      <c r="AZ1" s="113"/>
+      <c r="BA1" s="113"/>
+      <c r="BB1" s="113"/>
+    </row>
+    <row r="2" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="110">
+        <v>1</v>
+      </c>
+      <c r="E2" s="102">
+        <v>2</v>
+      </c>
+      <c r="F2" s="102">
+        <v>3</v>
+      </c>
+      <c r="G2" s="107">
+        <v>4</v>
+      </c>
+      <c r="H2" s="110">
+        <v>1</v>
+      </c>
+      <c r="I2" s="102">
+        <v>2</v>
+      </c>
+      <c r="J2" s="102">
+        <v>3</v>
+      </c>
+      <c r="K2" s="107">
+        <v>4</v>
+      </c>
+      <c r="L2" s="110">
+        <v>1</v>
+      </c>
+      <c r="M2" s="102">
+        <v>2</v>
+      </c>
+      <c r="N2" s="102">
+        <v>3</v>
+      </c>
+      <c r="O2" s="107">
+        <v>4</v>
+      </c>
+      <c r="P2" s="110">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="102">
+        <v>2</v>
+      </c>
+      <c r="R2" s="102">
+        <v>3</v>
+      </c>
+      <c r="S2" s="107">
+        <v>4</v>
+      </c>
+      <c r="T2" s="110">
+        <v>1</v>
+      </c>
+      <c r="U2" s="102">
+        <v>2</v>
+      </c>
+      <c r="V2" s="102">
+        <v>3</v>
+      </c>
+      <c r="W2" s="107">
+        <v>4</v>
+      </c>
+      <c r="X2" s="110">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="102">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="102">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="107">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="110">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="102">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="102">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="107">
+        <v>4</v>
+      </c>
+      <c r="AF2" s="114">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="112">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="112">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="112">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="113"/>
+      <c r="AK2" s="113"/>
+      <c r="AL2" s="113"/>
+      <c r="AM2" s="113"/>
+      <c r="AN2" s="113"/>
+      <c r="AO2" s="113"/>
+      <c r="AP2" s="113"/>
+      <c r="AQ2" s="113"/>
+      <c r="AR2" s="113"/>
+      <c r="AS2" s="113"/>
+      <c r="AT2" s="113"/>
+      <c r="AU2" s="113"/>
+      <c r="AV2" s="113"/>
+      <c r="AW2" s="113"/>
+      <c r="AX2" s="113"/>
+      <c r="AY2" s="113"/>
+      <c r="AZ2" s="113"/>
+      <c r="BA2" s="113"/>
+      <c r="BB2" s="113"/>
+    </row>
+    <row r="3" spans="1:54" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="130" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" s="133"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="104"/>
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="108"/>
+      <c r="AB3" s="111"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="104"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="112"/>
+      <c r="AH3" s="112"/>
+      <c r="AI3" s="112"/>
+      <c r="AJ3" s="113"/>
+      <c r="AK3" s="113"/>
+      <c r="AL3" s="113"/>
+      <c r="AM3" s="113"/>
+      <c r="AN3" s="113"/>
+      <c r="AO3" s="113"/>
+      <c r="AP3" s="113"/>
+      <c r="AQ3" s="113"/>
+      <c r="AR3" s="113"/>
+      <c r="AS3" s="113"/>
+      <c r="AT3" s="113"/>
+      <c r="AU3" s="113"/>
+      <c r="AV3" s="113"/>
+      <c r="AW3" s="113"/>
+      <c r="AX3" s="113"/>
+      <c r="AY3" s="113"/>
+      <c r="AZ3" s="113"/>
+      <c r="BA3" s="113"/>
+      <c r="BB3" s="113"/>
+    </row>
+    <row r="4" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="131" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="132"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="102"/>
+      <c r="V4" s="102"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="102"/>
+      <c r="Z4" s="102"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="102"/>
+      <c r="AD4" s="102"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="114"/>
+      <c r="AG4" s="112"/>
+      <c r="AH4" s="112"/>
+      <c r="AI4" s="112"/>
+      <c r="AJ4" s="113"/>
+      <c r="AK4" s="113"/>
+      <c r="AL4" s="113"/>
+      <c r="AM4" s="113"/>
+      <c r="AN4" s="113"/>
+      <c r="AO4" s="113"/>
+      <c r="AP4" s="113"/>
+      <c r="AQ4" s="113"/>
+      <c r="AR4" s="113"/>
+      <c r="AS4" s="113"/>
+      <c r="AT4" s="113"/>
+      <c r="AU4" s="113"/>
+      <c r="AV4" s="113"/>
+      <c r="AW4" s="113"/>
+      <c r="AX4" s="113"/>
+      <c r="AY4" s="113"/>
+      <c r="AZ4" s="113"/>
+      <c r="BA4" s="113"/>
+      <c r="BB4" s="113"/>
+    </row>
+    <row r="5" spans="1:54" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="130" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="121"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="108"/>
+      <c r="X5" s="111"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="111"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="108"/>
+      <c r="AF5" s="114"/>
+      <c r="AG5" s="112"/>
+      <c r="AH5" s="112"/>
+      <c r="AI5" s="112"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
+    </row>
+    <row r="6" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="131" t="s">
         <v>304</v>
       </c>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="129"/>
-      <c r="X1" s="132" t="s">
+      <c r="B6" s="126"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="124"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="110"/>
+      <c r="Y6" s="102"/>
+      <c r="Z6" s="102"/>
+      <c r="AA6" s="107"/>
+      <c r="AB6" s="110"/>
+      <c r="AC6" s="102"/>
+      <c r="AD6" s="102"/>
+      <c r="AE6" s="107"/>
+      <c r="AF6" s="114"/>
+      <c r="AG6" s="112"/>
+      <c r="AH6" s="112"/>
+      <c r="AI6" s="112"/>
+      <c r="AJ6" s="113"/>
+      <c r="AK6" s="113"/>
+      <c r="AL6" s="113"/>
+      <c r="AM6" s="113"/>
+      <c r="AN6" s="113"/>
+      <c r="AO6" s="113"/>
+      <c r="AP6" s="113"/>
+      <c r="AQ6" s="113"/>
+      <c r="AR6" s="113"/>
+      <c r="AS6" s="113"/>
+      <c r="AT6" s="113"/>
+      <c r="AU6" s="113"/>
+      <c r="AV6" s="113"/>
+      <c r="AW6" s="113"/>
+      <c r="AX6" s="113"/>
+      <c r="AY6" s="113"/>
+      <c r="AZ6" s="113"/>
+      <c r="BA6" s="113"/>
+      <c r="BB6" s="113"/>
+    </row>
+    <row r="7" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="131" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="126"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="125"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="110"/>
+      <c r="Y7" s="102"/>
+      <c r="Z7" s="102"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="110"/>
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="102"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="114"/>
+      <c r="AG7" s="112"/>
+      <c r="AH7" s="112"/>
+      <c r="AI7" s="112"/>
+      <c r="AJ7" s="113"/>
+      <c r="AK7" s="113"/>
+      <c r="AL7" s="113"/>
+      <c r="AM7" s="113"/>
+      <c r="AN7" s="113"/>
+      <c r="AO7" s="113"/>
+      <c r="AP7" s="113"/>
+      <c r="AQ7" s="113"/>
+      <c r="AR7" s="113"/>
+      <c r="AS7" s="113"/>
+      <c r="AT7" s="113"/>
+      <c r="AU7" s="113"/>
+      <c r="AV7" s="113"/>
+      <c r="AW7" s="113"/>
+      <c r="AX7" s="113"/>
+      <c r="AY7" s="113"/>
+      <c r="AZ7" s="113"/>
+      <c r="BA7" s="113"/>
+      <c r="BB7" s="113"/>
+    </row>
+    <row r="8" spans="1:54" s="105" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="130" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" s="129"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="104"/>
+      <c r="W8" s="127"/>
+      <c r="X8" s="128"/>
+      <c r="Y8" s="129"/>
+      <c r="Z8" s="129"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="111"/>
+      <c r="AC8" s="104"/>
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="114"/>
+      <c r="AG8" s="112"/>
+      <c r="AH8" s="112"/>
+      <c r="AI8" s="112"/>
+      <c r="AJ8" s="113"/>
+      <c r="AK8" s="113"/>
+      <c r="AL8" s="113"/>
+      <c r="AM8" s="113"/>
+      <c r="AN8" s="113"/>
+      <c r="AO8" s="113"/>
+      <c r="AP8" s="113"/>
+      <c r="AQ8" s="113"/>
+      <c r="AR8" s="113"/>
+      <c r="AS8" s="113"/>
+      <c r="AT8" s="113"/>
+      <c r="AU8" s="113"/>
+      <c r="AV8" s="113"/>
+      <c r="AW8" s="113"/>
+      <c r="AX8" s="113"/>
+      <c r="AY8" s="113"/>
+      <c r="AZ8" s="113"/>
+      <c r="BA8" s="113"/>
+      <c r="BB8" s="113"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A9" s="101"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="101"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="109"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="109"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="101"/>
+      <c r="AE9" s="106"/>
+      <c r="AF9" s="114"/>
+      <c r="AG9" s="112"/>
+      <c r="AH9" s="112"/>
+      <c r="AI9" s="112"/>
+      <c r="AJ9" s="113"/>
+      <c r="AK9" s="113"/>
+      <c r="AL9" s="113"/>
+      <c r="AM9" s="113"/>
+      <c r="AN9" s="113"/>
+      <c r="AO9" s="113"/>
+      <c r="AP9" s="113"/>
+      <c r="AQ9" s="113"/>
+      <c r="AR9" s="113"/>
+      <c r="AS9" s="113"/>
+      <c r="AT9" s="113"/>
+      <c r="AU9" s="113"/>
+      <c r="AV9" s="113"/>
+      <c r="AW9" s="113"/>
+      <c r="AX9" s="113"/>
+      <c r="AY9" s="113"/>
+      <c r="AZ9" s="113"/>
+      <c r="BA9" s="113"/>
+      <c r="BB9" s="113"/>
+    </row>
+    <row r="10" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="102" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="102"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="110" t="s">
+        <v>294</v>
+      </c>
+      <c r="E10" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="F10" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="G10" s="107"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="110"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="110"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="107"/>
+      <c r="AB10" s="110"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="107"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="112"/>
+      <c r="AH10" s="112"/>
+      <c r="AI10" s="112"/>
+      <c r="AJ10" s="113"/>
+      <c r="AK10" s="113"/>
+      <c r="AL10" s="113"/>
+      <c r="AM10" s="113"/>
+      <c r="AN10" s="113"/>
+      <c r="AO10" s="113"/>
+      <c r="AP10" s="113"/>
+      <c r="AQ10" s="113"/>
+      <c r="AR10" s="113"/>
+      <c r="AS10" s="113"/>
+      <c r="AT10" s="113"/>
+      <c r="AU10" s="113"/>
+      <c r="AV10" s="113"/>
+      <c r="AW10" s="113"/>
+      <c r="AX10" s="113"/>
+      <c r="AY10" s="113"/>
+      <c r="AZ10" s="113"/>
+      <c r="BA10" s="113"/>
+      <c r="BB10" s="113"/>
+    </row>
+    <row r="11" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="102" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" s="102"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="G11" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="H11" s="110" t="s">
+        <v>294</v>
+      </c>
+      <c r="I11" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="J11" s="102"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="110"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="107"/>
+      <c r="AB11" s="110"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="107"/>
+      <c r="AF11" s="114"/>
+      <c r="AG11" s="112"/>
+      <c r="AH11" s="112"/>
+      <c r="AI11" s="112"/>
+      <c r="AJ11" s="113"/>
+      <c r="AK11" s="113"/>
+      <c r="AL11" s="113"/>
+      <c r="AM11" s="113"/>
+      <c r="AN11" s="113"/>
+      <c r="AO11" s="113"/>
+      <c r="AP11" s="113"/>
+      <c r="AQ11" s="113"/>
+      <c r="AR11" s="113"/>
+      <c r="AS11" s="113"/>
+      <c r="AT11" s="113"/>
+      <c r="AU11" s="113"/>
+      <c r="AV11" s="113"/>
+      <c r="AW11" s="113"/>
+      <c r="AX11" s="113"/>
+      <c r="AY11" s="113"/>
+      <c r="AZ11" s="113"/>
+      <c r="BA11" s="113"/>
+      <c r="BB11" s="113"/>
+    </row>
+    <row r="12" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="102" t="s">
         <v>305</v>
       </c>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="129"/>
-      <c r="AB1" s="132" t="s">
-        <v>286</v>
-      </c>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="129"/>
-      <c r="AF1" s="137" t="s">
+      <c r="B12" s="102"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="G12" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="H12" s="110" t="s">
+        <v>294</v>
+      </c>
+      <c r="I12" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="J12" s="102"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="102"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="110"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="102"/>
+      <c r="AA12" s="107"/>
+      <c r="AB12" s="110"/>
+      <c r="AC12" s="102"/>
+      <c r="AD12" s="102"/>
+      <c r="AE12" s="107"/>
+      <c r="AF12" s="114"/>
+      <c r="AG12" s="112"/>
+      <c r="AH12" s="112"/>
+      <c r="AI12" s="112"/>
+      <c r="AJ12" s="113"/>
+      <c r="AK12" s="113"/>
+      <c r="AL12" s="113"/>
+      <c r="AM12" s="113"/>
+      <c r="AN12" s="113"/>
+      <c r="AO12" s="113"/>
+      <c r="AP12" s="113"/>
+      <c r="AQ12" s="113"/>
+      <c r="AR12" s="113"/>
+      <c r="AS12" s="113"/>
+      <c r="AT12" s="113"/>
+      <c r="AU12" s="113"/>
+      <c r="AV12" s="113"/>
+      <c r="AW12" s="113"/>
+      <c r="AX12" s="113"/>
+      <c r="AY12" s="113"/>
+      <c r="AZ12" s="113"/>
+      <c r="BA12" s="113"/>
+      <c r="BB12" s="113"/>
+    </row>
+    <row r="13" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="102" t="s">
         <v>287</v>
       </c>
-      <c r="AG1" s="135"/>
-      <c r="AH1" s="135"/>
-      <c r="AI1" s="135"/>
-      <c r="AJ1" s="136"/>
-      <c r="AK1" s="136"/>
-      <c r="AL1" s="136"/>
-      <c r="AM1" s="136"/>
-      <c r="AN1" s="136"/>
-      <c r="AO1" s="136"/>
-      <c r="AP1" s="136"/>
-      <c r="AQ1" s="136"/>
-      <c r="AR1" s="136"/>
-      <c r="AS1" s="136"/>
-      <c r="AT1" s="136"/>
-      <c r="AU1" s="136"/>
-      <c r="AV1" s="136"/>
-      <c r="AW1" s="136"/>
-      <c r="AX1" s="136"/>
-      <c r="AY1" s="136"/>
-      <c r="AZ1" s="136"/>
-      <c r="BA1" s="136"/>
-      <c r="BB1" s="136"/>
-    </row>
-    <row r="2" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="133">
-        <v>1</v>
-      </c>
-      <c r="E2" s="125">
-        <v>2</v>
-      </c>
-      <c r="F2" s="125">
-        <v>3</v>
-      </c>
-      <c r="G2" s="130">
-        <v>4</v>
-      </c>
-      <c r="H2" s="133">
-        <v>1</v>
-      </c>
-      <c r="I2" s="125">
-        <v>2</v>
-      </c>
-      <c r="J2" s="125">
-        <v>3</v>
-      </c>
-      <c r="K2" s="130">
-        <v>4</v>
-      </c>
-      <c r="L2" s="133">
-        <v>1</v>
-      </c>
-      <c r="M2" s="125">
-        <v>2</v>
-      </c>
-      <c r="N2" s="125">
-        <v>3</v>
-      </c>
-      <c r="O2" s="130">
-        <v>4</v>
-      </c>
-      <c r="P2" s="133">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="125">
-        <v>2</v>
-      </c>
-      <c r="R2" s="125">
-        <v>3</v>
-      </c>
-      <c r="S2" s="130">
-        <v>4</v>
-      </c>
-      <c r="T2" s="133">
-        <v>1</v>
-      </c>
-      <c r="U2" s="125">
-        <v>2</v>
-      </c>
-      <c r="V2" s="125">
-        <v>3</v>
-      </c>
-      <c r="W2" s="130">
-        <v>4</v>
-      </c>
-      <c r="X2" s="133">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="125">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="125">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="130">
-        <v>4</v>
-      </c>
-      <c r="AB2" s="133">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="125">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="125">
-        <v>3</v>
-      </c>
-      <c r="AE2" s="130">
-        <v>4</v>
-      </c>
-      <c r="AF2" s="137">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="135">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="135">
-        <v>3</v>
-      </c>
-      <c r="AI2" s="135">
-        <v>4</v>
-      </c>
-      <c r="AJ2" s="136"/>
-      <c r="AK2" s="136"/>
-      <c r="AL2" s="136"/>
-      <c r="AM2" s="136"/>
-      <c r="AN2" s="136"/>
-      <c r="AO2" s="136"/>
-      <c r="AP2" s="136"/>
-      <c r="AQ2" s="136"/>
-      <c r="AR2" s="136"/>
-      <c r="AS2" s="136"/>
-      <c r="AT2" s="136"/>
-      <c r="AU2" s="136"/>
-      <c r="AV2" s="136"/>
-      <c r="AW2" s="136"/>
-      <c r="AX2" s="136"/>
-      <c r="AY2" s="136"/>
-      <c r="AZ2" s="136"/>
-      <c r="BA2" s="136"/>
-      <c r="BB2" s="136"/>
-    </row>
-    <row r="3" spans="1:54" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
-        <v>299</v>
-      </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="127"/>
-      <c r="S3" s="131"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="127"/>
-      <c r="V3" s="127"/>
-      <c r="W3" s="131"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="127"/>
-      <c r="Z3" s="127"/>
-      <c r="AA3" s="131"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="127"/>
-      <c r="AD3" s="127"/>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="135"/>
-      <c r="AH3" s="135"/>
-      <c r="AI3" s="135"/>
-      <c r="AJ3" s="136"/>
-      <c r="AK3" s="136"/>
-      <c r="AL3" s="136"/>
-      <c r="AM3" s="136"/>
-      <c r="AN3" s="136"/>
-      <c r="AO3" s="136"/>
-      <c r="AP3" s="136"/>
-      <c r="AQ3" s="136"/>
-      <c r="AR3" s="136"/>
-      <c r="AS3" s="136"/>
-      <c r="AT3" s="136"/>
-      <c r="AU3" s="136"/>
-      <c r="AV3" s="136"/>
-      <c r="AW3" s="136"/>
-      <c r="AX3" s="136"/>
-      <c r="AY3" s="136"/>
-      <c r="AZ3" s="136"/>
-      <c r="BA3" s="136"/>
-      <c r="BB3" s="136"/>
-    </row>
-    <row r="4" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="154" t="s">
-        <v>300</v>
-      </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="130"/>
-      <c r="T4" s="133"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="130"/>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="133"/>
-      <c r="AC4" s="125"/>
-      <c r="AD4" s="125"/>
-      <c r="AE4" s="130"/>
-      <c r="AF4" s="137"/>
-      <c r="AG4" s="135"/>
-      <c r="AH4" s="135"/>
-      <c r="AI4" s="135"/>
-      <c r="AJ4" s="136"/>
-      <c r="AK4" s="136"/>
-      <c r="AL4" s="136"/>
-      <c r="AM4" s="136"/>
-      <c r="AN4" s="136"/>
-      <c r="AO4" s="136"/>
-      <c r="AP4" s="136"/>
-      <c r="AQ4" s="136"/>
-      <c r="AR4" s="136"/>
-      <c r="AS4" s="136"/>
-      <c r="AT4" s="136"/>
-      <c r="AU4" s="136"/>
-      <c r="AV4" s="136"/>
-      <c r="AW4" s="136"/>
-      <c r="AX4" s="136"/>
-      <c r="AY4" s="136"/>
-      <c r="AZ4" s="136"/>
-      <c r="BA4" s="136"/>
-      <c r="BB4" s="136"/>
-    </row>
-    <row r="5" spans="1:54" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="153" t="s">
-        <v>301</v>
-      </c>
-      <c r="B5" s="144"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="145"/>
-      <c r="P5" s="146"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="131"/>
-      <c r="T5" s="134"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="131"/>
-      <c r="X5" s="134"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="131"/>
-      <c r="AB5" s="134"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="131"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="135"/>
-      <c r="AH5" s="135"/>
-      <c r="AI5" s="135"/>
-      <c r="AJ5" s="136"/>
-      <c r="AK5" s="136"/>
-      <c r="AL5" s="136"/>
-      <c r="AM5" s="136"/>
-      <c r="AN5" s="136"/>
-      <c r="AO5" s="136"/>
-      <c r="AP5" s="136"/>
-      <c r="AQ5" s="136"/>
-      <c r="AR5" s="136"/>
-      <c r="AS5" s="136"/>
-      <c r="AT5" s="136"/>
-      <c r="AU5" s="136"/>
-      <c r="AV5" s="136"/>
-      <c r="AW5" s="136"/>
-      <c r="AX5" s="136"/>
-      <c r="AY5" s="136"/>
-      <c r="AZ5" s="136"/>
-      <c r="BA5" s="136"/>
-      <c r="BB5" s="136"/>
-    </row>
-    <row r="6" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="154" t="s">
-        <v>307</v>
-      </c>
-      <c r="B6" s="149"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="147"/>
-      <c r="T6" s="148"/>
-      <c r="U6" s="149"/>
-      <c r="V6" s="149"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125"/>
-      <c r="AA6" s="130"/>
-      <c r="AB6" s="133"/>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="130"/>
-      <c r="AF6" s="137"/>
-      <c r="AG6" s="135"/>
-      <c r="AH6" s="135"/>
-      <c r="AI6" s="135"/>
-      <c r="AJ6" s="136"/>
-      <c r="AK6" s="136"/>
-      <c r="AL6" s="136"/>
-      <c r="AM6" s="136"/>
-      <c r="AN6" s="136"/>
-      <c r="AO6" s="136"/>
-      <c r="AP6" s="136"/>
-      <c r="AQ6" s="136"/>
-      <c r="AR6" s="136"/>
-      <c r="AS6" s="136"/>
-      <c r="AT6" s="136"/>
-      <c r="AU6" s="136"/>
-      <c r="AV6" s="136"/>
-      <c r="AW6" s="136"/>
-      <c r="AX6" s="136"/>
-      <c r="AY6" s="136"/>
-      <c r="AZ6" s="136"/>
-      <c r="BA6" s="136"/>
-      <c r="BB6" s="136"/>
-    </row>
-    <row r="7" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="154" t="s">
+      <c r="B13" s="102"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="G13" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="H13" s="110" t="s">
+        <v>294</v>
+      </c>
+      <c r="I13" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="J13" s="102"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="110"/>
+      <c r="U13" s="102"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="110"/>
+      <c r="Y13" s="102"/>
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="107"/>
+      <c r="AB13" s="110"/>
+      <c r="AC13" s="102"/>
+      <c r="AD13" s="102"/>
+      <c r="AE13" s="107"/>
+      <c r="AF13" s="114"/>
+      <c r="AG13" s="112"/>
+      <c r="AH13" s="112"/>
+      <c r="AI13" s="112"/>
+      <c r="AJ13" s="113"/>
+      <c r="AK13" s="113"/>
+      <c r="AL13" s="113"/>
+      <c r="AM13" s="113"/>
+      <c r="AN13" s="113"/>
+      <c r="AO13" s="113"/>
+      <c r="AP13" s="113"/>
+      <c r="AQ13" s="113"/>
+      <c r="AR13" s="113"/>
+      <c r="AS13" s="113"/>
+      <c r="AT13" s="113"/>
+      <c r="AU13" s="113"/>
+      <c r="AV13" s="113"/>
+      <c r="AW13" s="113"/>
+      <c r="AX13" s="113"/>
+      <c r="AY13" s="113"/>
+      <c r="AZ13" s="113"/>
+      <c r="BA13" s="113"/>
+      <c r="BB13" s="113"/>
+    </row>
+    <row r="14" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="102" t="s">
+        <v>290</v>
+      </c>
+      <c r="B14" s="102"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="G14" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="H14" s="110" t="s">
+        <v>294</v>
+      </c>
+      <c r="I14" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="J14" s="102"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="110"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="107"/>
+      <c r="AB14" s="110"/>
+      <c r="AC14" s="102"/>
+      <c r="AD14" s="102"/>
+      <c r="AE14" s="107"/>
+      <c r="AF14" s="114"/>
+      <c r="AG14" s="112"/>
+      <c r="AH14" s="112"/>
+      <c r="AI14" s="112"/>
+      <c r="AJ14" s="113"/>
+      <c r="AK14" s="113"/>
+      <c r="AL14" s="113"/>
+      <c r="AM14" s="113"/>
+      <c r="AN14" s="113"/>
+      <c r="AO14" s="113"/>
+      <c r="AP14" s="113"/>
+      <c r="AQ14" s="113"/>
+      <c r="AR14" s="113"/>
+      <c r="AS14" s="113"/>
+      <c r="AT14" s="113"/>
+      <c r="AU14" s="113"/>
+      <c r="AV14" s="113"/>
+      <c r="AW14" s="113"/>
+      <c r="AX14" s="113"/>
+      <c r="AY14" s="113"/>
+      <c r="AZ14" s="113"/>
+      <c r="BA14" s="113"/>
+      <c r="BB14" s="113"/>
+    </row>
+    <row r="15" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="B15" s="102"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="F15" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="G15" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="H15" s="110" t="s">
+        <v>294</v>
+      </c>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="110"/>
+      <c r="U15" s="102"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="110"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="107"/>
+      <c r="AB15" s="110"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="102"/>
+      <c r="AE15" s="107"/>
+      <c r="AF15" s="114"/>
+      <c r="AG15" s="112"/>
+      <c r="AH15" s="112"/>
+      <c r="AI15" s="112"/>
+      <c r="AJ15" s="113"/>
+      <c r="AK15" s="113"/>
+      <c r="AL15" s="113"/>
+      <c r="AM15" s="113"/>
+      <c r="AN15" s="113"/>
+      <c r="AO15" s="113"/>
+      <c r="AP15" s="113"/>
+      <c r="AQ15" s="113"/>
+      <c r="AR15" s="113"/>
+      <c r="AS15" s="113"/>
+      <c r="AT15" s="113"/>
+      <c r="AU15" s="113"/>
+      <c r="AV15" s="113"/>
+      <c r="AW15" s="113"/>
+      <c r="AX15" s="113"/>
+      <c r="AY15" s="113"/>
+      <c r="AZ15" s="113"/>
+      <c r="BA15" s="113"/>
+      <c r="BB15" s="113"/>
+    </row>
+    <row r="16" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="102" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" s="102"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="F16" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="G16" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="H16" s="110" t="s">
+        <v>294</v>
+      </c>
+      <c r="I16" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="J16" s="102"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="110"/>
+      <c r="U16" s="102"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="107"/>
+      <c r="X16" s="110"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="102"/>
+      <c r="AA16" s="107"/>
+      <c r="AB16" s="110"/>
+      <c r="AC16" s="102"/>
+      <c r="AD16" s="102"/>
+      <c r="AE16" s="107"/>
+      <c r="AF16" s="114"/>
+      <c r="AG16" s="112"/>
+      <c r="AH16" s="112"/>
+      <c r="AI16" s="112"/>
+      <c r="AJ16" s="113"/>
+      <c r="AK16" s="113"/>
+      <c r="AL16" s="113"/>
+      <c r="AM16" s="113"/>
+      <c r="AN16" s="113"/>
+      <c r="AO16" s="113"/>
+      <c r="AP16" s="113"/>
+      <c r="AQ16" s="113"/>
+      <c r="AR16" s="113"/>
+      <c r="AS16" s="113"/>
+      <c r="AT16" s="113"/>
+      <c r="AU16" s="113"/>
+      <c r="AV16" s="113"/>
+      <c r="AW16" s="113"/>
+      <c r="AX16" s="113"/>
+      <c r="AY16" s="113"/>
+      <c r="AZ16" s="113"/>
+      <c r="BA16" s="113"/>
+      <c r="BB16" s="113"/>
+    </row>
+    <row r="17" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="102" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" s="102"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="F17" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="G17" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="H17" s="110" t="s">
+        <v>294</v>
+      </c>
+      <c r="I17" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="J17" s="102"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="110"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="W17" s="107"/>
+      <c r="X17" s="110"/>
+      <c r="Y17" s="102"/>
+      <c r="Z17" s="102"/>
+      <c r="AA17" s="107"/>
+      <c r="AB17" s="110"/>
+      <c r="AC17" s="102"/>
+      <c r="AD17" s="102"/>
+      <c r="AE17" s="107"/>
+      <c r="AF17" s="114"/>
+      <c r="AG17" s="112"/>
+      <c r="AH17" s="112"/>
+      <c r="AI17" s="112"/>
+      <c r="AJ17" s="113"/>
+      <c r="AK17" s="113"/>
+      <c r="AL17" s="113"/>
+      <c r="AM17" s="113"/>
+      <c r="AN17" s="113"/>
+      <c r="AO17" s="113"/>
+      <c r="AP17" s="113"/>
+      <c r="AQ17" s="113"/>
+      <c r="AR17" s="113"/>
+      <c r="AS17" s="113"/>
+      <c r="AT17" s="113"/>
+      <c r="AU17" s="113"/>
+      <c r="AV17" s="113"/>
+      <c r="AW17" s="113"/>
+      <c r="AX17" s="113"/>
+      <c r="AY17" s="113"/>
+      <c r="AZ17" s="113"/>
+      <c r="BA17" s="113"/>
+      <c r="BB17" s="113"/>
+    </row>
+    <row r="18" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="102" t="s">
         <v>306</v>
       </c>
-      <c r="B7" s="149"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="130"/>
-      <c r="T7" s="148"/>
-      <c r="U7" s="125"/>
-      <c r="V7" s="125"/>
-      <c r="W7" s="130"/>
-      <c r="X7" s="133"/>
-      <c r="Y7" s="125"/>
-      <c r="Z7" s="125"/>
-      <c r="AA7" s="130"/>
-      <c r="AB7" s="133"/>
-      <c r="AC7" s="125"/>
-      <c r="AD7" s="125"/>
-      <c r="AE7" s="130"/>
-      <c r="AF7" s="137"/>
-      <c r="AG7" s="135"/>
-      <c r="AH7" s="135"/>
-      <c r="AI7" s="135"/>
-      <c r="AJ7" s="136"/>
-      <c r="AK7" s="136"/>
-      <c r="AL7" s="136"/>
-      <c r="AM7" s="136"/>
-      <c r="AN7" s="136"/>
-      <c r="AO7" s="136"/>
-      <c r="AP7" s="136"/>
-      <c r="AQ7" s="136"/>
-      <c r="AR7" s="136"/>
-      <c r="AS7" s="136"/>
-      <c r="AT7" s="136"/>
-      <c r="AU7" s="136"/>
-      <c r="AV7" s="136"/>
-      <c r="AW7" s="136"/>
-      <c r="AX7" s="136"/>
-      <c r="AY7" s="136"/>
-      <c r="AZ7" s="136"/>
-      <c r="BA7" s="136"/>
-      <c r="BB7" s="136"/>
-    </row>
-    <row r="8" spans="1:54" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="153" t="s">
-        <v>303</v>
-      </c>
-      <c r="B8" s="152"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="131"/>
-      <c r="P8" s="134"/>
-      <c r="Q8" s="127"/>
-      <c r="R8" s="127"/>
-      <c r="S8" s="131"/>
-      <c r="T8" s="134"/>
-      <c r="U8" s="127"/>
-      <c r="V8" s="127"/>
-      <c r="W8" s="150"/>
-      <c r="X8" s="151"/>
-      <c r="Y8" s="152"/>
-      <c r="Z8" s="152"/>
-      <c r="AA8" s="131"/>
-      <c r="AB8" s="134"/>
-      <c r="AC8" s="127"/>
-      <c r="AD8" s="127"/>
-      <c r="AE8" s="131"/>
-      <c r="AF8" s="137"/>
-      <c r="AG8" s="135"/>
-      <c r="AH8" s="135"/>
-      <c r="AI8" s="135"/>
-      <c r="AJ8" s="136"/>
-      <c r="AK8" s="136"/>
-      <c r="AL8" s="136"/>
-      <c r="AM8" s="136"/>
-      <c r="AN8" s="136"/>
-      <c r="AO8" s="136"/>
-      <c r="AP8" s="136"/>
-      <c r="AQ8" s="136"/>
-      <c r="AR8" s="136"/>
-      <c r="AS8" s="136"/>
-      <c r="AT8" s="136"/>
-      <c r="AU8" s="136"/>
-      <c r="AV8" s="136"/>
-      <c r="AW8" s="136"/>
-      <c r="AX8" s="136"/>
-      <c r="AY8" s="136"/>
-      <c r="AZ8" s="136"/>
-      <c r="BA8" s="136"/>
-      <c r="BB8" s="136"/>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A9" s="124"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="132"/>
-      <c r="Q9" s="124"/>
-      <c r="R9" s="124"/>
-      <c r="S9" s="129"/>
-      <c r="T9" s="132"/>
-      <c r="U9" s="124"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="129"/>
-      <c r="X9" s="132"/>
-      <c r="Y9" s="124"/>
-      <c r="Z9" s="124"/>
-      <c r="AA9" s="129"/>
-      <c r="AB9" s="132"/>
-      <c r="AC9" s="124"/>
-      <c r="AD9" s="124"/>
-      <c r="AE9" s="129"/>
-      <c r="AF9" s="137"/>
-      <c r="AG9" s="135"/>
-      <c r="AH9" s="135"/>
-      <c r="AI9" s="135"/>
-      <c r="AJ9" s="136"/>
-      <c r="AK9" s="136"/>
-      <c r="AL9" s="136"/>
-      <c r="AM9" s="136"/>
-      <c r="AN9" s="136"/>
-      <c r="AO9" s="136"/>
-      <c r="AP9" s="136"/>
-      <c r="AQ9" s="136"/>
-      <c r="AR9" s="136"/>
-      <c r="AS9" s="136"/>
-      <c r="AT9" s="136"/>
-      <c r="AU9" s="136"/>
-      <c r="AV9" s="136"/>
-      <c r="AW9" s="136"/>
-      <c r="AX9" s="136"/>
-      <c r="AY9" s="136"/>
-      <c r="AZ9" s="136"/>
-      <c r="BA9" s="136"/>
-      <c r="BB9" s="136"/>
-    </row>
-    <row r="10" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="125" t="s">
-        <v>288</v>
-      </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="133" t="s">
+      <c r="B18" s="102"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="110" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="F18" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="G18" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="H18" s="110"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="110"/>
+      <c r="U18" s="102"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="107"/>
+      <c r="X18" s="110"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="102"/>
+      <c r="AA18" s="107"/>
+      <c r="AB18" s="110"/>
+      <c r="AC18" s="102"/>
+      <c r="AD18" s="102"/>
+      <c r="AE18" s="107"/>
+      <c r="AF18" s="114"/>
+      <c r="AG18" s="112"/>
+      <c r="AH18" s="112"/>
+      <c r="AI18" s="112"/>
+      <c r="AJ18" s="113"/>
+      <c r="AK18" s="113"/>
+      <c r="AL18" s="113"/>
+      <c r="AM18" s="113"/>
+      <c r="AN18" s="113"/>
+      <c r="AO18" s="113"/>
+      <c r="AP18" s="113"/>
+      <c r="AQ18" s="113"/>
+      <c r="AR18" s="113"/>
+      <c r="AS18" s="113"/>
+      <c r="AT18" s="113"/>
+      <c r="AU18" s="113"/>
+      <c r="AV18" s="113"/>
+      <c r="AW18" s="113"/>
+      <c r="AX18" s="113"/>
+      <c r="AY18" s="113"/>
+      <c r="AZ18" s="113"/>
+      <c r="BA18" s="113"/>
+      <c r="BB18" s="113"/>
+    </row>
+    <row r="19" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="102" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" s="102"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="F19" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="G19" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="H19" s="110" t="s">
+        <v>294</v>
+      </c>
+      <c r="I19" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="J19" s="102"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="110"/>
+      <c r="U19" s="102"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="107"/>
+      <c r="X19" s="110"/>
+      <c r="Y19" s="102"/>
+      <c r="Z19" s="102"/>
+      <c r="AA19" s="107"/>
+      <c r="AB19" s="110"/>
+      <c r="AC19" s="102"/>
+      <c r="AD19" s="102"/>
+      <c r="AE19" s="107"/>
+      <c r="AF19" s="114"/>
+      <c r="AG19" s="112"/>
+      <c r="AH19" s="112"/>
+      <c r="AI19" s="112"/>
+      <c r="AJ19" s="113"/>
+      <c r="AK19" s="113"/>
+      <c r="AL19" s="113"/>
+      <c r="AM19" s="113"/>
+      <c r="AN19" s="113"/>
+      <c r="AO19" s="113"/>
+      <c r="AP19" s="113"/>
+      <c r="AQ19" s="113"/>
+      <c r="AR19" s="113"/>
+      <c r="AS19" s="113"/>
+      <c r="AT19" s="113"/>
+      <c r="AU19" s="113"/>
+      <c r="AV19" s="113"/>
+      <c r="AW19" s="113"/>
+      <c r="AX19" s="113"/>
+      <c r="AY19" s="113"/>
+      <c r="AZ19" s="113"/>
+      <c r="BA19" s="113"/>
+      <c r="BB19" s="113"/>
+    </row>
+    <row r="20" spans="1:54" s="103" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="B20" s="102"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="F20" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="G20" s="107" t="s">
+        <v>294</v>
+      </c>
+      <c r="H20" s="110" t="s">
+        <v>294</v>
+      </c>
+      <c r="I20" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="J20" s="102"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="110"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="107"/>
+      <c r="X20" s="110"/>
+      <c r="Y20" s="102"/>
+      <c r="Z20" s="102"/>
+      <c r="AA20" s="107"/>
+      <c r="AB20" s="110"/>
+      <c r="AC20" s="102"/>
+      <c r="AD20" s="102"/>
+      <c r="AE20" s="107"/>
+      <c r="AF20" s="114"/>
+      <c r="AG20" s="112"/>
+      <c r="AH20" s="112"/>
+      <c r="AI20" s="112"/>
+      <c r="AJ20" s="113"/>
+      <c r="AK20" s="113"/>
+      <c r="AL20" s="113"/>
+      <c r="AM20" s="113"/>
+      <c r="AN20" s="113"/>
+      <c r="AO20" s="113"/>
+      <c r="AP20" s="113"/>
+      <c r="AQ20" s="113"/>
+      <c r="AR20" s="113"/>
+      <c r="AS20" s="113"/>
+      <c r="AT20" s="113"/>
+      <c r="AU20" s="113"/>
+      <c r="AV20" s="113"/>
+      <c r="AW20" s="113"/>
+      <c r="AX20" s="113"/>
+      <c r="AY20" s="113"/>
+      <c r="AZ20" s="113"/>
+      <c r="BA20" s="113"/>
+      <c r="BB20" s="113"/>
+    </row>
+    <row r="21" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="102" t="s">
         <v>296</v>
       </c>
-      <c r="E10" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="F10" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="G10" s="130"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="133"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="130"/>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="130"/>
-      <c r="T10" s="133"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="130"/>
-      <c r="X10" s="133"/>
-      <c r="Y10" s="125"/>
-      <c r="Z10" s="125"/>
-      <c r="AA10" s="130"/>
-      <c r="AB10" s="133"/>
-      <c r="AC10" s="125"/>
-      <c r="AD10" s="125"/>
-      <c r="AE10" s="130"/>
-      <c r="AF10" s="137"/>
-      <c r="AG10" s="135"/>
-      <c r="AH10" s="135"/>
-      <c r="AI10" s="135"/>
-      <c r="AJ10" s="136"/>
-      <c r="AK10" s="136"/>
-      <c r="AL10" s="136"/>
-      <c r="AM10" s="136"/>
-      <c r="AN10" s="136"/>
-      <c r="AO10" s="136"/>
-      <c r="AP10" s="136"/>
-      <c r="AQ10" s="136"/>
-      <c r="AR10" s="136"/>
-      <c r="AS10" s="136"/>
-      <c r="AT10" s="136"/>
-      <c r="AU10" s="136"/>
-      <c r="AV10" s="136"/>
-      <c r="AW10" s="136"/>
-      <c r="AX10" s="136"/>
-      <c r="AY10" s="136"/>
-      <c r="AZ10" s="136"/>
-      <c r="BA10" s="136"/>
-      <c r="BB10" s="136"/>
-    </row>
-    <row r="11" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="125" t="s">
-        <v>290</v>
-      </c>
-      <c r="B11" s="125"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="G11" s="130" t="s">
-        <v>296</v>
-      </c>
-      <c r="H11" s="133" t="s">
-        <v>296</v>
-      </c>
-      <c r="I11" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="J11" s="125"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="133"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="130"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="125"/>
-      <c r="R11" s="125"/>
-      <c r="S11" s="130"/>
-      <c r="T11" s="133"/>
-      <c r="U11" s="125"/>
-      <c r="V11" s="125"/>
-      <c r="W11" s="130"/>
-      <c r="X11" s="133"/>
-      <c r="Y11" s="125"/>
-      <c r="Z11" s="125"/>
-      <c r="AA11" s="130"/>
-      <c r="AB11" s="133"/>
-      <c r="AC11" s="125"/>
-      <c r="AD11" s="125"/>
-      <c r="AE11" s="130"/>
-      <c r="AF11" s="137"/>
-      <c r="AG11" s="135"/>
-      <c r="AH11" s="135"/>
-      <c r="AI11" s="135"/>
-      <c r="AJ11" s="136"/>
-      <c r="AK11" s="136"/>
-      <c r="AL11" s="136"/>
-      <c r="AM11" s="136"/>
-      <c r="AN11" s="136"/>
-      <c r="AO11" s="136"/>
-      <c r="AP11" s="136"/>
-      <c r="AQ11" s="136"/>
-      <c r="AR11" s="136"/>
-      <c r="AS11" s="136"/>
-      <c r="AT11" s="136"/>
-      <c r="AU11" s="136"/>
-      <c r="AV11" s="136"/>
-      <c r="AW11" s="136"/>
-      <c r="AX11" s="136"/>
-      <c r="AY11" s="136"/>
-      <c r="AZ11" s="136"/>
-      <c r="BA11" s="136"/>
-      <c r="BB11" s="136"/>
-    </row>
-    <row r="12" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="125" t="s">
-        <v>308</v>
-      </c>
-      <c r="B12" s="125"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="G12" s="130" t="s">
-        <v>296</v>
-      </c>
-      <c r="H12" s="133" t="s">
-        <v>296</v>
-      </c>
-      <c r="I12" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="J12" s="125"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="133"/>
-      <c r="Q12" s="125"/>
-      <c r="R12" s="125"/>
-      <c r="S12" s="130"/>
-      <c r="T12" s="133"/>
-      <c r="U12" s="125"/>
-      <c r="V12" s="125"/>
-      <c r="W12" s="130"/>
-      <c r="X12" s="133"/>
-      <c r="Y12" s="125"/>
-      <c r="Z12" s="125"/>
-      <c r="AA12" s="130"/>
-      <c r="AB12" s="133"/>
-      <c r="AC12" s="125"/>
-      <c r="AD12" s="125"/>
-      <c r="AE12" s="130"/>
-      <c r="AF12" s="137"/>
-      <c r="AG12" s="135"/>
-      <c r="AH12" s="135"/>
-      <c r="AI12" s="135"/>
-      <c r="AJ12" s="136"/>
-      <c r="AK12" s="136"/>
-      <c r="AL12" s="136"/>
-      <c r="AM12" s="136"/>
-      <c r="AN12" s="136"/>
-      <c r="AO12" s="136"/>
-      <c r="AP12" s="136"/>
-      <c r="AQ12" s="136"/>
-      <c r="AR12" s="136"/>
-      <c r="AS12" s="136"/>
-      <c r="AT12" s="136"/>
-      <c r="AU12" s="136"/>
-      <c r="AV12" s="136"/>
-      <c r="AW12" s="136"/>
-      <c r="AX12" s="136"/>
-      <c r="AY12" s="136"/>
-      <c r="AZ12" s="136"/>
-      <c r="BA12" s="136"/>
-      <c r="BB12" s="136"/>
-    </row>
-    <row r="13" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="125" t="s">
-        <v>289</v>
-      </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="F13" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="G13" s="130" t="s">
-        <v>296</v>
-      </c>
-      <c r="H13" s="133" t="s">
-        <v>296</v>
-      </c>
-      <c r="I13" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="J13" s="125"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="130"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="125"/>
-      <c r="R13" s="125"/>
-      <c r="S13" s="130"/>
-      <c r="T13" s="133"/>
-      <c r="U13" s="125"/>
-      <c r="V13" s="125"/>
-      <c r="W13" s="130"/>
-      <c r="X13" s="133"/>
-      <c r="Y13" s="125"/>
-      <c r="Z13" s="125"/>
-      <c r="AA13" s="130"/>
-      <c r="AB13" s="133"/>
-      <c r="AC13" s="125"/>
-      <c r="AD13" s="125"/>
-      <c r="AE13" s="130"/>
-      <c r="AF13" s="137"/>
-      <c r="AG13" s="135"/>
-      <c r="AH13" s="135"/>
-      <c r="AI13" s="135"/>
-      <c r="AJ13" s="136"/>
-      <c r="AK13" s="136"/>
-      <c r="AL13" s="136"/>
-      <c r="AM13" s="136"/>
-      <c r="AN13" s="136"/>
-      <c r="AO13" s="136"/>
-      <c r="AP13" s="136"/>
-      <c r="AQ13" s="136"/>
-      <c r="AR13" s="136"/>
-      <c r="AS13" s="136"/>
-      <c r="AT13" s="136"/>
-      <c r="AU13" s="136"/>
-      <c r="AV13" s="136"/>
-      <c r="AW13" s="136"/>
-      <c r="AX13" s="136"/>
-      <c r="AY13" s="136"/>
-      <c r="AZ13" s="136"/>
-      <c r="BA13" s="136"/>
-      <c r="BB13" s="136"/>
-    </row>
-    <row r="14" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="125" t="s">
-        <v>292</v>
-      </c>
-      <c r="B14" s="125"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="F14" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="G14" s="130" t="s">
-        <v>296</v>
-      </c>
-      <c r="H14" s="133" t="s">
-        <v>296</v>
-      </c>
-      <c r="I14" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="J14" s="125"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="130"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="125"/>
-      <c r="R14" s="125"/>
-      <c r="S14" s="130"/>
-      <c r="T14" s="133"/>
-      <c r="U14" s="125"/>
-      <c r="V14" s="125"/>
-      <c r="W14" s="130"/>
-      <c r="X14" s="133"/>
-      <c r="Y14" s="125"/>
-      <c r="Z14" s="125"/>
-      <c r="AA14" s="130"/>
-      <c r="AB14" s="133"/>
-      <c r="AC14" s="125"/>
-      <c r="AD14" s="125"/>
-      <c r="AE14" s="130"/>
-      <c r="AF14" s="137"/>
-      <c r="AG14" s="135"/>
-      <c r="AH14" s="135"/>
-      <c r="AI14" s="135"/>
-      <c r="AJ14" s="136"/>
-      <c r="AK14" s="136"/>
-      <c r="AL14" s="136"/>
-      <c r="AM14" s="136"/>
-      <c r="AN14" s="136"/>
-      <c r="AO14" s="136"/>
-      <c r="AP14" s="136"/>
-      <c r="AQ14" s="136"/>
-      <c r="AR14" s="136"/>
-      <c r="AS14" s="136"/>
-      <c r="AT14" s="136"/>
-      <c r="AU14" s="136"/>
-      <c r="AV14" s="136"/>
-      <c r="AW14" s="136"/>
-      <c r="AX14" s="136"/>
-      <c r="AY14" s="136"/>
-      <c r="AZ14" s="136"/>
-      <c r="BA14" s="136"/>
-      <c r="BB14" s="136"/>
-    </row>
-    <row r="15" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="125" t="s">
-        <v>291</v>
-      </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="F15" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="G15" s="130" t="s">
-        <v>296</v>
-      </c>
-      <c r="H15" s="133" t="s">
-        <v>296</v>
-      </c>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="133"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="130"/>
-      <c r="P15" s="133"/>
-      <c r="Q15" s="125"/>
-      <c r="R15" s="125"/>
-      <c r="S15" s="130"/>
-      <c r="T15" s="133"/>
-      <c r="U15" s="125"/>
-      <c r="V15" s="125"/>
-      <c r="W15" s="130"/>
-      <c r="X15" s="133"/>
-      <c r="Y15" s="125"/>
-      <c r="Z15" s="125"/>
-      <c r="AA15" s="130"/>
-      <c r="AB15" s="133"/>
-      <c r="AC15" s="125"/>
-      <c r="AD15" s="125"/>
-      <c r="AE15" s="130"/>
-      <c r="AF15" s="137"/>
-      <c r="AG15" s="135"/>
-      <c r="AH15" s="135"/>
-      <c r="AI15" s="135"/>
-      <c r="AJ15" s="136"/>
-      <c r="AK15" s="136"/>
-      <c r="AL15" s="136"/>
-      <c r="AM15" s="136"/>
-      <c r="AN15" s="136"/>
-      <c r="AO15" s="136"/>
-      <c r="AP15" s="136"/>
-      <c r="AQ15" s="136"/>
-      <c r="AR15" s="136"/>
-      <c r="AS15" s="136"/>
-      <c r="AT15" s="136"/>
-      <c r="AU15" s="136"/>
-      <c r="AV15" s="136"/>
-      <c r="AW15" s="136"/>
-      <c r="AX15" s="136"/>
-      <c r="AY15" s="136"/>
-      <c r="AZ15" s="136"/>
-      <c r="BA15" s="136"/>
-      <c r="BB15" s="136"/>
-    </row>
-    <row r="16" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="125" t="s">
-        <v>297</v>
-      </c>
-      <c r="B16" s="125"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="F16" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="G16" s="130" t="s">
-        <v>296</v>
-      </c>
-      <c r="H16" s="133" t="s">
-        <v>296</v>
-      </c>
-      <c r="I16" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="J16" s="125"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="133"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="133"/>
-      <c r="Q16" s="125"/>
-      <c r="R16" s="125"/>
-      <c r="S16" s="130"/>
-      <c r="T16" s="133"/>
-      <c r="U16" s="125"/>
-      <c r="V16" s="125"/>
-      <c r="W16" s="130"/>
-      <c r="X16" s="133"/>
-      <c r="Y16" s="125"/>
-      <c r="Z16" s="125"/>
-      <c r="AA16" s="130"/>
-      <c r="AB16" s="133"/>
-      <c r="AC16" s="125"/>
-      <c r="AD16" s="125"/>
-      <c r="AE16" s="130"/>
-      <c r="AF16" s="137"/>
-      <c r="AG16" s="135"/>
-      <c r="AH16" s="135"/>
-      <c r="AI16" s="135"/>
-      <c r="AJ16" s="136"/>
-      <c r="AK16" s="136"/>
-      <c r="AL16" s="136"/>
-      <c r="AM16" s="136"/>
-      <c r="AN16" s="136"/>
-      <c r="AO16" s="136"/>
-      <c r="AP16" s="136"/>
-      <c r="AQ16" s="136"/>
-      <c r="AR16" s="136"/>
-      <c r="AS16" s="136"/>
-      <c r="AT16" s="136"/>
-      <c r="AU16" s="136"/>
-      <c r="AV16" s="136"/>
-      <c r="AW16" s="136"/>
-      <c r="AX16" s="136"/>
-      <c r="AY16" s="136"/>
-      <c r="AZ16" s="136"/>
-      <c r="BA16" s="136"/>
-      <c r="BB16" s="136"/>
-    </row>
-    <row r="17" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="125" t="s">
-        <v>293</v>
-      </c>
-      <c r="B17" s="125"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="F17" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="G17" s="130" t="s">
-        <v>296</v>
-      </c>
-      <c r="H17" s="133" t="s">
-        <v>296</v>
-      </c>
-      <c r="I17" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="J17" s="125"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="130"/>
-      <c r="P17" s="133"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="125"/>
-      <c r="S17" s="130"/>
-      <c r="T17" s="133"/>
-      <c r="U17" s="125"/>
-      <c r="V17" s="125"/>
-      <c r="W17" s="130"/>
-      <c r="X17" s="133"/>
-      <c r="Y17" s="125"/>
-      <c r="Z17" s="125"/>
-      <c r="AA17" s="130"/>
-      <c r="AB17" s="133"/>
-      <c r="AC17" s="125"/>
-      <c r="AD17" s="125"/>
-      <c r="AE17" s="130"/>
-      <c r="AF17" s="137"/>
-      <c r="AG17" s="135"/>
-      <c r="AH17" s="135"/>
-      <c r="AI17" s="135"/>
-      <c r="AJ17" s="136"/>
-      <c r="AK17" s="136"/>
-      <c r="AL17" s="136"/>
-      <c r="AM17" s="136"/>
-      <c r="AN17" s="136"/>
-      <c r="AO17" s="136"/>
-      <c r="AP17" s="136"/>
-      <c r="AQ17" s="136"/>
-      <c r="AR17" s="136"/>
-      <c r="AS17" s="136"/>
-      <c r="AT17" s="136"/>
-      <c r="AU17" s="136"/>
-      <c r="AV17" s="136"/>
-      <c r="AW17" s="136"/>
-      <c r="AX17" s="136"/>
-      <c r="AY17" s="136"/>
-      <c r="AZ17" s="136"/>
-      <c r="BA17" s="136"/>
-      <c r="BB17" s="136"/>
-    </row>
-    <row r="18" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="125" t="s">
-        <v>309</v>
-      </c>
-      <c r="B18" s="125"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="133" t="s">
-        <v>296</v>
-      </c>
-      <c r="E18" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="F18" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="G18" s="130" t="s">
-        <v>296</v>
-      </c>
-      <c r="H18" s="133"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="133"/>
-      <c r="Q18" s="125"/>
-      <c r="R18" s="125"/>
-      <c r="S18" s="130"/>
-      <c r="T18" s="133"/>
-      <c r="U18" s="125"/>
-      <c r="V18" s="125"/>
-      <c r="W18" s="130"/>
-      <c r="X18" s="133"/>
-      <c r="Y18" s="125"/>
-      <c r="Z18" s="125"/>
-      <c r="AA18" s="130"/>
-      <c r="AB18" s="133"/>
-      <c r="AC18" s="125"/>
-      <c r="AD18" s="125"/>
-      <c r="AE18" s="130"/>
-      <c r="AF18" s="137"/>
-      <c r="AG18" s="135"/>
-      <c r="AH18" s="135"/>
-      <c r="AI18" s="135"/>
-      <c r="AJ18" s="136"/>
-      <c r="AK18" s="136"/>
-      <c r="AL18" s="136"/>
-      <c r="AM18" s="136"/>
-      <c r="AN18" s="136"/>
-      <c r="AO18" s="136"/>
-      <c r="AP18" s="136"/>
-      <c r="AQ18" s="136"/>
-      <c r="AR18" s="136"/>
-      <c r="AS18" s="136"/>
-      <c r="AT18" s="136"/>
-      <c r="AU18" s="136"/>
-      <c r="AV18" s="136"/>
-      <c r="AW18" s="136"/>
-      <c r="AX18" s="136"/>
-      <c r="AY18" s="136"/>
-      <c r="AZ18" s="136"/>
-      <c r="BA18" s="136"/>
-      <c r="BB18" s="136"/>
-    </row>
-    <row r="19" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="125" t="s">
+      <c r="B21" s="102"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="110" t="s">
         <v>294</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="F19" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="G19" s="130" t="s">
-        <v>296</v>
-      </c>
-      <c r="H19" s="133" t="s">
-        <v>296</v>
-      </c>
-      <c r="I19" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="J19" s="125"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="133"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="130"/>
-      <c r="P19" s="133"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="125"/>
-      <c r="S19" s="130"/>
-      <c r="T19" s="133"/>
-      <c r="U19" s="125"/>
-      <c r="V19" s="125"/>
-      <c r="W19" s="130"/>
-      <c r="X19" s="133"/>
-      <c r="Y19" s="125"/>
-      <c r="Z19" s="125"/>
-      <c r="AA19" s="130"/>
-      <c r="AB19" s="133"/>
-      <c r="AC19" s="125"/>
-      <c r="AD19" s="125"/>
-      <c r="AE19" s="130"/>
-      <c r="AF19" s="137"/>
-      <c r="AG19" s="135"/>
-      <c r="AH19" s="135"/>
-      <c r="AI19" s="135"/>
-      <c r="AJ19" s="136"/>
-      <c r="AK19" s="136"/>
-      <c r="AL19" s="136"/>
-      <c r="AM19" s="136"/>
-      <c r="AN19" s="136"/>
-      <c r="AO19" s="136"/>
-      <c r="AP19" s="136"/>
-      <c r="AQ19" s="136"/>
-      <c r="AR19" s="136"/>
-      <c r="AS19" s="136"/>
-      <c r="AT19" s="136"/>
-      <c r="AU19" s="136"/>
-      <c r="AV19" s="136"/>
-      <c r="AW19" s="136"/>
-      <c r="AX19" s="136"/>
-      <c r="AY19" s="136"/>
-      <c r="AZ19" s="136"/>
-      <c r="BA19" s="136"/>
-      <c r="BB19" s="136"/>
-    </row>
-    <row r="20" spans="1:54" s="126" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="125" t="s">
-        <v>295</v>
-      </c>
-      <c r="B20" s="125"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="F20" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="G20" s="130" t="s">
-        <v>296</v>
-      </c>
-      <c r="H20" s="133" t="s">
-        <v>296</v>
-      </c>
-      <c r="I20" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="J20" s="125"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="133"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="130"/>
-      <c r="P20" s="133"/>
-      <c r="Q20" s="125"/>
-      <c r="R20" s="125"/>
-      <c r="S20" s="130"/>
-      <c r="T20" s="133"/>
-      <c r="U20" s="125"/>
-      <c r="V20" s="125"/>
-      <c r="W20" s="130"/>
-      <c r="X20" s="133"/>
-      <c r="Y20" s="125"/>
-      <c r="Z20" s="125"/>
-      <c r="AA20" s="130"/>
-      <c r="AB20" s="133"/>
-      <c r="AC20" s="125"/>
-      <c r="AD20" s="125"/>
-      <c r="AE20" s="130"/>
-      <c r="AF20" s="137"/>
-      <c r="AG20" s="135"/>
-      <c r="AH20" s="135"/>
-      <c r="AI20" s="135"/>
-      <c r="AJ20" s="136"/>
-      <c r="AK20" s="136"/>
-      <c r="AL20" s="136"/>
-      <c r="AM20" s="136"/>
-      <c r="AN20" s="136"/>
-      <c r="AO20" s="136"/>
-      <c r="AP20" s="136"/>
-      <c r="AQ20" s="136"/>
-      <c r="AR20" s="136"/>
-      <c r="AS20" s="136"/>
-      <c r="AT20" s="136"/>
-      <c r="AU20" s="136"/>
-      <c r="AV20" s="136"/>
-      <c r="AW20" s="136"/>
-      <c r="AX20" s="136"/>
-      <c r="AY20" s="136"/>
-      <c r="AZ20" s="136"/>
-      <c r="BA20" s="136"/>
-      <c r="BB20" s="136"/>
-    </row>
-    <row r="21" spans="1:54" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="125" t="s">
-        <v>298</v>
-      </c>
-      <c r="B21" s="125"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="133" t="s">
-        <v>296</v>
-      </c>
-      <c r="I21" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="J21" s="125"/>
-      <c r="K21" s="130"/>
-      <c r="L21" s="133"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="130"/>
-      <c r="P21" s="133"/>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="125"/>
-      <c r="S21" s="130"/>
-      <c r="T21" s="133"/>
-      <c r="U21" s="125"/>
-      <c r="V21" s="125"/>
-      <c r="W21" s="130"/>
-      <c r="X21" s="133"/>
-      <c r="Y21" s="125"/>
-      <c r="Z21" s="125"/>
-      <c r="AA21" s="130"/>
-      <c r="AB21" s="133"/>
-      <c r="AC21" s="125"/>
-      <c r="AD21" s="125"/>
-      <c r="AE21" s="130"/>
-      <c r="AF21" s="137"/>
-      <c r="AG21" s="135"/>
-      <c r="AH21" s="135"/>
-      <c r="AI21" s="135"/>
-      <c r="AJ21" s="136"/>
-      <c r="AK21" s="136"/>
-      <c r="AL21" s="136"/>
-      <c r="AM21" s="136"/>
-      <c r="AN21" s="136"/>
-      <c r="AO21" s="136"/>
-      <c r="AP21" s="136"/>
-      <c r="AQ21" s="136"/>
-      <c r="AR21" s="136"/>
-      <c r="AS21" s="136"/>
-      <c r="AT21" s="136"/>
-      <c r="AU21" s="136"/>
-      <c r="AV21" s="136"/>
-      <c r="AW21" s="136"/>
-      <c r="AX21" s="136"/>
-      <c r="AY21" s="136"/>
-      <c r="AZ21" s="136"/>
-      <c r="BA21" s="136"/>
-      <c r="BB21" s="136"/>
+      <c r="I21" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="J21" s="102"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="102"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="107"/>
+      <c r="X21" s="110"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="102"/>
+      <c r="AA21" s="107"/>
+      <c r="AB21" s="110"/>
+      <c r="AC21" s="102"/>
+      <c r="AD21" s="102"/>
+      <c r="AE21" s="107"/>
+      <c r="AF21" s="114"/>
+      <c r="AG21" s="112"/>
+      <c r="AH21" s="112"/>
+      <c r="AI21" s="112"/>
+      <c r="AJ21" s="113"/>
+      <c r="AK21" s="113"/>
+      <c r="AL21" s="113"/>
+      <c r="AM21" s="113"/>
+      <c r="AN21" s="113"/>
+      <c r="AO21" s="113"/>
+      <c r="AP21" s="113"/>
+      <c r="AQ21" s="113"/>
+      <c r="AR21" s="113"/>
+      <c r="AS21" s="113"/>
+      <c r="AT21" s="113"/>
+      <c r="AU21" s="113"/>
+      <c r="AV21" s="113"/>
+      <c r="AW21" s="113"/>
+      <c r="AX21" s="113"/>
+      <c r="AY21" s="113"/>
+      <c r="AZ21" s="113"/>
+      <c r="BA21" s="113"/>
+      <c r="BB21" s="113"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/beheer van issues/GitHub geregistreerde issues 2020-04-01 v1.7 - publicatie_voorIIMKL_PMKL.xlsx
+++ b/beheer van issues/GitHub geregistreerde issues 2020-04-01 v1.7 - publicatie_voorIIMKL_PMKL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\beheer van issues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5857D2D6-48EC-478A-BA7A-5B820459F284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BB98C3-EECA-429C-9349-7E9FB939A2AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{FB381769-38D6-4077-9ECA-0963F4850A5C}"/>
+    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" xr2:uid="{FB381769-38D6-4077-9ECA-0963F4850A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="TCS - 01-04-2020" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'IMKL-issues'!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TCS - 01-04-2020'!$A$1:$Q$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TCS - 01-04-2020'!$A$1:$R$51</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'TCS - 01-04-2020'!$B:$D,'TCS - 01-04-2020'!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="311">
   <si>
     <t>Nr</t>
   </si>
@@ -1046,9 +1046,6 @@
     <t>klein constraint</t>
   </si>
   <si>
-    <t>klein waardelijst en cardinaliteit</t>
-  </si>
-  <si>
     <t>waardelijst definitie</t>
   </si>
   <si>
@@ -1131,6 +1128,21 @@
   </si>
   <si>
     <t>Volgorde attributen voor visualisatie</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>verwerkt</t>
+  </si>
+  <si>
+    <t>nog niet duidelijk</t>
+  </si>
+  <si>
+    <t>oplossing is mij nog niet duidelijk</t>
+  </si>
+  <si>
+    <t>klein waardelijst en cardinaliteit en constraint</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1388,6 +1400,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1641,7 +1665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1976,6 +2000,12 @@
     <xf numFmtId="0" fontId="13" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2297,13 +2327,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883CA980-74AA-405C-8656-3F944D40A6CA}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2319,15 +2349,15 @@
     <col min="9" max="9" width="15.42578125" style="85" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" style="6" customWidth="1"/>
-    <col min="12" max="13" width="17.85546875" style="98" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6" style="6" customWidth="1"/>
-    <col min="16" max="16" width="78" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="14" width="17.85546875" style="98" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6" style="6" customWidth="1"/>
+    <col min="17" max="17" width="78" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="64" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="64" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>141</v>
       </c>
@@ -2365,20 +2395,23 @@
         <v>248</v>
       </c>
       <c r="M1" s="90"/>
-      <c r="N1" s="62" t="s">
+      <c r="N1" s="90" t="s">
+        <v>306</v>
+      </c>
+      <c r="O1" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="60" t="s">
+      <c r="P1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="Q1" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="63" t="s">
+      <c r="R1" s="63" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>0</v>
       </c>
@@ -2394,12 +2427,13 @@
       <c r="K2" s="73"/>
       <c r="L2" s="93"/>
       <c r="M2" s="93"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="67"/>
-    </row>
-    <row r="3" spans="1:17" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="93"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="67"/>
+    </row>
+    <row r="3" spans="1:18" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>111</v>
       </c>
@@ -2420,16 +2454,17 @@
       <c r="K3" s="16"/>
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="11" t="s">
+      <c r="N3" s="94"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="82" t="s">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="82" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="75">
         <v>85</v>
       </c>
@@ -2456,16 +2491,17 @@
       <c r="K4" s="16"/>
       <c r="L4" s="94"/>
       <c r="M4" s="94"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="11">
+      <c r="N4" s="94"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="11">
         <v>85</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="Q4" s="79" t="s">
         <v>241</v>
       </c>
-      <c r="Q4" s="13"/>
-    </row>
-    <row r="5" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="13"/>
+    </row>
+    <row r="5" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="68">
         <v>291</v>
       </c>
@@ -2492,16 +2528,17 @@
       <c r="K5" s="16"/>
       <c r="L5" s="94"/>
       <c r="M5" s="94"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="11">
+      <c r="N5" s="94"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="11">
         <v>291</v>
       </c>
-      <c r="P5" s="79" t="s">
+      <c r="Q5" s="79" t="s">
         <v>228</v>
       </c>
-      <c r="Q5" s="13"/>
-    </row>
-    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R5" s="13"/>
+    </row>
+    <row r="6" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -2535,16 +2572,17 @@
       <c r="M6" s="99" t="s">
         <v>255</v>
       </c>
-      <c r="N6" s="58"/>
-      <c r="O6" s="11">
+      <c r="N6" s="99"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="11">
         <v>286</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="Q6" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="Q6" s="13"/>
-    </row>
-    <row r="7" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="R6" s="13"/>
+    </row>
+    <row r="7" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -2578,16 +2616,17 @@
       <c r="M7" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="N7" s="58"/>
-      <c r="O7" s="11">
+      <c r="N7" s="99"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="11">
         <v>285</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="Q7" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="Q7" s="13"/>
-    </row>
-    <row r="8" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="1:18" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>2</v>
       </c>
@@ -2615,16 +2654,17 @@
       <c r="K8" s="16"/>
       <c r="L8" s="94"/>
       <c r="M8" s="94"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="11">
+      <c r="N8" s="94"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="11">
         <v>288</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="Q8" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R8" s="13"/>
+    </row>
+    <row r="9" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>3</v>
       </c>
@@ -2652,16 +2692,17 @@
       <c r="K9" s="16"/>
       <c r="L9" s="94"/>
       <c r="M9" s="94"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="11">
+      <c r="N9" s="94"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="11">
         <v>287</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="Q9" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R9" s="13"/>
+    </row>
+    <row r="10" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -2695,16 +2736,19 @@
       <c r="M10" s="99" t="s">
         <v>254</v>
       </c>
-      <c r="N10" s="58"/>
-      <c r="O10" s="11">
+      <c r="N10" s="99" t="s">
+        <v>307</v>
+      </c>
+      <c r="O10" s="58"/>
+      <c r="P10" s="11">
         <v>280</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="Q10" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="R10" s="13"/>
+    </row>
+    <row r="11" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>11</v>
       </c>
@@ -2742,16 +2786,19 @@
       <c r="M11" s="99" t="s">
         <v>256</v>
       </c>
-      <c r="N11" s="58"/>
-      <c r="O11" s="11">
+      <c r="N11" s="99" t="s">
+        <v>307</v>
+      </c>
+      <c r="O11" s="58"/>
+      <c r="P11" s="11">
         <v>240</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="Q11" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="R11" s="13"/>
+    </row>
+    <row r="12" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>12</v>
       </c>
@@ -2789,16 +2836,19 @@
       <c r="M12" s="99" t="s">
         <v>256</v>
       </c>
-      <c r="N12" s="58"/>
-      <c r="O12" s="11">
+      <c r="N12" s="99" t="s">
+        <v>307</v>
+      </c>
+      <c r="O12" s="58"/>
+      <c r="P12" s="11">
         <v>210</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="Q12" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R12" s="13"/>
+    </row>
+    <row r="13" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>7</v>
       </c>
@@ -2828,16 +2878,17 @@
       <c r="K13" s="16"/>
       <c r="L13" s="94"/>
       <c r="M13" s="94"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="11">
+      <c r="N13" s="94"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="11">
         <v>283</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="Q13" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="R13" s="13"/>
+    </row>
+    <row r="14" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>16</v>
       </c>
@@ -2871,18 +2922,19 @@
       <c r="M14" s="99" t="s">
         <v>255</v>
       </c>
-      <c r="N14" s="58"/>
-      <c r="O14" s="11">
+      <c r="N14" s="99"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="11">
         <v>277</v>
       </c>
-      <c r="P14" s="54" t="s">
+      <c r="Q14" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="R14" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>17</v>
       </c>
@@ -2916,16 +2968,17 @@
       <c r="M15" s="99" t="s">
         <v>260</v>
       </c>
-      <c r="N15" s="58"/>
-      <c r="O15" s="11">
+      <c r="N15" s="99"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="11">
         <v>276</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="Q15" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R15" s="13"/>
+    </row>
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>10</v>
       </c>
@@ -2941,12 +2994,13 @@
       <c r="K16" s="73"/>
       <c r="L16" s="93"/>
       <c r="M16" s="93"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="67"/>
-    </row>
-    <row r="17" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="N16" s="93"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="67"/>
+    </row>
+    <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>19</v>
       </c>
@@ -2984,16 +3038,17 @@
       <c r="M17" s="99" t="s">
         <v>265</v>
       </c>
-      <c r="N17" s="58"/>
-      <c r="O17" s="11">
+      <c r="N17" s="99"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="11">
         <v>269</v>
       </c>
-      <c r="P17" s="79" t="s">
+      <c r="Q17" s="79" t="s">
         <v>238</v>
       </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="R17" s="13"/>
+    </row>
+    <row r="18" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>20</v>
       </c>
@@ -3027,16 +3082,17 @@
       <c r="M18" s="99" t="s">
         <v>266</v>
       </c>
-      <c r="N18" s="58"/>
-      <c r="O18" s="11">
+      <c r="N18" s="99"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="11">
         <v>268</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="Q18" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="13"/>
+    </row>
+    <row r="19" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>13</v>
       </c>
@@ -3066,16 +3122,17 @@
       <c r="K19" s="16"/>
       <c r="L19" s="94"/>
       <c r="M19" s="94"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="11">
+      <c r="N19" s="94"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="11">
         <v>64</v>
       </c>
-      <c r="P19" s="12" t="s">
+      <c r="Q19" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="R19" s="13"/>
+    </row>
+    <row r="20" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>23</v>
       </c>
@@ -3109,16 +3166,17 @@
       <c r="M20" s="99" t="s">
         <v>255</v>
       </c>
-      <c r="N20" s="58"/>
-      <c r="O20" s="11">
+      <c r="N20" s="99"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="11">
         <v>250</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="Q20" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R20" s="13"/>
+    </row>
+    <row r="21" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>25</v>
       </c>
@@ -3152,18 +3210,21 @@
       <c r="M21" s="99" t="s">
         <v>270</v>
       </c>
-      <c r="N21" s="58"/>
-      <c r="O21" s="11">
+      <c r="N21" s="99" t="s">
+        <v>307</v>
+      </c>
+      <c r="O21" s="58"/>
+      <c r="P21" s="11">
         <v>239</v>
       </c>
-      <c r="P21" s="79" t="s">
+      <c r="Q21" s="79" t="s">
         <v>247</v>
       </c>
-      <c r="Q21" s="77" t="s">
+      <c r="R21" s="77" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>27</v>
       </c>
@@ -3197,16 +3258,19 @@
       <c r="M22" s="99" t="s">
         <v>273</v>
       </c>
-      <c r="N22" s="58"/>
-      <c r="O22" s="11">
+      <c r="N22" s="99" t="s">
+        <v>307</v>
+      </c>
+      <c r="O22" s="58"/>
+      <c r="P22" s="11">
         <v>219</v>
       </c>
-      <c r="P22" s="79" t="s">
+      <c r="Q22" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R22" s="13"/>
+    </row>
+    <row r="23" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>28</v>
       </c>
@@ -3240,16 +3304,19 @@
       <c r="M23" s="99" t="s">
         <v>254</v>
       </c>
-      <c r="N23" s="58"/>
-      <c r="O23" s="11">
+      <c r="N23" s="99" t="s">
+        <v>307</v>
+      </c>
+      <c r="O23" s="58"/>
+      <c r="P23" s="11">
         <v>215</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="Q23" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="R23" s="13"/>
+    </row>
+    <row r="24" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>29</v>
       </c>
@@ -3283,16 +3350,19 @@
       <c r="M24" s="99" t="s">
         <v>270</v>
       </c>
-      <c r="N24" s="58"/>
-      <c r="O24" s="11">
+      <c r="N24" s="99" t="s">
+        <v>307</v>
+      </c>
+      <c r="O24" s="58"/>
+      <c r="P24" s="11">
         <v>214</v>
       </c>
-      <c r="P24" s="12" t="s">
+      <c r="Q24" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R24" s="13"/>
+    </row>
+    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>30</v>
       </c>
@@ -3326,16 +3396,17 @@
       <c r="M25" s="99" t="s">
         <v>270</v>
       </c>
-      <c r="N25" s="58"/>
-      <c r="O25" s="11">
+      <c r="N25" s="99"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="11">
         <v>213</v>
       </c>
-      <c r="P25" s="12" t="s">
+      <c r="Q25" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="R25" s="13"/>
+    </row>
+    <row r="26" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>33</v>
       </c>
@@ -3367,18 +3438,19 @@
       </c>
       <c r="L26" s="97"/>
       <c r="M26" s="99"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="11">
+      <c r="N26" s="99"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="11">
         <v>196</v>
       </c>
-      <c r="P26" s="79" t="s">
+      <c r="Q26" s="79" t="s">
         <v>231</v>
       </c>
-      <c r="Q26" s="77" t="s">
+      <c r="R26" s="77" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>21</v>
       </c>
@@ -3408,16 +3480,17 @@
       <c r="K27" s="16"/>
       <c r="L27" s="94"/>
       <c r="M27" s="94"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="11">
+      <c r="N27" s="94"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="11">
         <v>267</v>
       </c>
-      <c r="P27" s="12" t="s">
+      <c r="Q27" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="R27" s="13"/>
+    </row>
+    <row r="28" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>34</v>
       </c>
@@ -3449,16 +3522,19 @@
       <c r="M28" s="99" t="s">
         <v>273</v>
       </c>
-      <c r="N28" s="58"/>
-      <c r="O28" s="11">
+      <c r="N28" s="99" t="s">
+        <v>307</v>
+      </c>
+      <c r="O28" s="58"/>
+      <c r="P28" s="11">
         <v>199</v>
       </c>
-      <c r="P28" s="12" t="s">
+      <c r="Q28" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R28" s="13"/>
+    </row>
+    <row r="29" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>35</v>
       </c>
@@ -3490,16 +3566,17 @@
         <v>276</v>
       </c>
       <c r="M29" s="99"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="11">
+      <c r="N29" s="99"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="11">
         <v>198</v>
       </c>
-      <c r="P29" s="12" t="s">
+      <c r="Q29" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R29" s="13"/>
+    </row>
+    <row r="30" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>36</v>
       </c>
@@ -3533,16 +3610,19 @@
       <c r="M30" s="99" t="s">
         <v>270</v>
       </c>
-      <c r="N30" s="58"/>
-      <c r="O30" s="11">
+      <c r="N30" s="99" t="s">
+        <v>307</v>
+      </c>
+      <c r="O30" s="58"/>
+      <c r="P30" s="11">
         <v>197</v>
       </c>
-      <c r="P30" s="79" t="s">
+      <c r="Q30" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="13"/>
+    </row>
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="76"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
@@ -3555,14 +3635,15 @@
       <c r="K31" s="16"/>
       <c r="L31" s="94"/>
       <c r="M31" s="94"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="13" t="s">
+      <c r="N31" s="94"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="R31" s="13"/>
+    </row>
+    <row r="32" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>37</v>
       </c>
@@ -3593,21 +3674,22 @@
         <v>192</v>
       </c>
       <c r="L32" s="97" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="M32" s="99" t="s">
-        <v>254</v>
-      </c>
-      <c r="N32" s="58"/>
-      <c r="O32" s="11">
+        <v>270</v>
+      </c>
+      <c r="N32" s="99"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="11">
         <v>195</v>
       </c>
-      <c r="P32" s="12" t="s">
+      <c r="Q32" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="R32" s="13"/>
+    </row>
+    <row r="33" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>38</v>
       </c>
@@ -3637,18 +3719,19 @@
         <v>257</v>
       </c>
       <c r="M33" s="99" t="s">
-        <v>279</v>
-      </c>
-      <c r="N33" s="58"/>
-      <c r="O33" s="11">
+        <v>278</v>
+      </c>
+      <c r="N33" s="99"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="11">
         <v>194</v>
       </c>
-      <c r="P33" s="79" t="s">
+      <c r="Q33" s="79" t="s">
         <v>233</v>
       </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="R33" s="13"/>
+    </row>
+    <row r="34" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>39</v>
       </c>
@@ -3682,16 +3765,19 @@
       <c r="M34" s="99" t="s">
         <v>273</v>
       </c>
-      <c r="N34" s="58"/>
-      <c r="O34" s="11">
+      <c r="N34" s="99" t="s">
+        <v>307</v>
+      </c>
+      <c r="O34" s="58"/>
+      <c r="P34" s="11">
         <v>193</v>
       </c>
-      <c r="P34" s="12" t="s">
+      <c r="Q34" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="R34" s="13"/>
+    </row>
+    <row r="35" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>40</v>
       </c>
@@ -3710,7 +3796,7 @@
       <c r="F35" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="134" t="s">
         <v>54</v>
       </c>
       <c r="H35" s="57"/>
@@ -3721,18 +3807,23 @@
       <c r="K35" s="96">
         <v>195</v>
       </c>
-      <c r="L35" s="97"/>
-      <c r="M35" s="99"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="11">
+      <c r="L35" s="97" t="s">
+        <v>308</v>
+      </c>
+      <c r="M35" s="99" t="s">
+        <v>309</v>
+      </c>
+      <c r="N35" s="99"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="11">
         <v>192</v>
       </c>
-      <c r="P35" s="79" t="s">
+      <c r="Q35" s="79" t="s">
         <v>244</v>
       </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="R35" s="13"/>
+    </row>
+    <row r="36" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>41</v>
       </c>
@@ -3766,16 +3857,17 @@
       <c r="M36" s="99" t="s">
         <v>270</v>
       </c>
-      <c r="N36" s="58"/>
-      <c r="O36" s="11">
+      <c r="N36" s="99"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="11">
         <v>191</v>
       </c>
-      <c r="P36" s="12" t="s">
+      <c r="Q36" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="R36" s="13"/>
+    </row>
+    <row r="37" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>42</v>
       </c>
@@ -3809,16 +3901,17 @@
       <c r="M37" s="99" t="s">
         <v>270</v>
       </c>
-      <c r="N37" s="58"/>
-      <c r="O37" s="11">
+      <c r="N37" s="99"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="11">
         <v>190</v>
       </c>
-      <c r="P37" s="12" t="s">
+      <c r="Q37" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" spans="1:18" s="10" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R37" s="13"/>
+    </row>
+    <row r="38" spans="1:19" s="10" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>31</v>
       </c>
@@ -3848,18 +3941,19 @@
       <c r="K38" s="19"/>
       <c r="L38" s="95"/>
       <c r="M38" s="95"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="11">
+      <c r="N38" s="95"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="11">
         <v>208</v>
       </c>
-      <c r="P38" s="12" t="s">
+      <c r="Q38" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="Q38" s="13" t="s">
+      <c r="R38" s="13" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>32</v>
       </c>
@@ -3891,16 +3985,17 @@
       </c>
       <c r="L39" s="94"/>
       <c r="M39" s="94"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="11">
+      <c r="N39" s="94"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="11">
         <v>204</v>
       </c>
-      <c r="P39" s="12" t="s">
+      <c r="Q39" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="R39" s="13"/>
+    </row>
+    <row r="40" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="20">
         <v>43</v>
       </c>
@@ -3934,17 +4029,18 @@
       </c>
       <c r="L40" s="97"/>
       <c r="M40" s="99"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="11">
+      <c r="N40" s="99"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="11">
         <v>181</v>
       </c>
-      <c r="P40" s="12" t="s">
+      <c r="Q40" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="Q40" s="13"/>
-      <c r="R40"/>
-    </row>
-    <row r="41" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="R40" s="13"/>
+      <c r="S40"/>
+    </row>
+    <row r="41" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="20">
         <v>24</v>
       </c>
@@ -3978,16 +4074,17 @@
       <c r="M41" s="99" t="s">
         <v>255</v>
       </c>
-      <c r="N41" s="58"/>
-      <c r="O41" s="11">
+      <c r="N41" s="99"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="11">
         <v>246</v>
       </c>
-      <c r="P41" s="12" t="s">
+      <c r="Q41" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R41" s="13"/>
+    </row>
+    <row r="42" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>26</v>
       </c>
@@ -4023,16 +4120,17 @@
       <c r="M42" s="99" t="s">
         <v>255</v>
       </c>
-      <c r="N42" s="58"/>
-      <c r="O42" s="11">
+      <c r="N42" s="99"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="11">
         <v>232</v>
       </c>
-      <c r="P42" s="12" t="s">
+      <c r="Q42" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R42" s="13"/>
+    </row>
+    <row r="43" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="B43" s="75">
         <v>290</v>
       </c>
@@ -4061,16 +4159,17 @@
         <v>249</v>
       </c>
       <c r="M43" s="99"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="11">
+      <c r="N43" s="99"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="11">
         <v>290</v>
       </c>
-      <c r="P43" s="12" t="s">
+      <c r="Q43" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R43" s="13"/>
+    </row>
+    <row r="44" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>1</v>
       </c>
@@ -4102,16 +4201,17 @@
         <v>249</v>
       </c>
       <c r="M44" s="99"/>
-      <c r="N44" s="58"/>
-      <c r="O44" s="11">
+      <c r="N44" s="99"/>
+      <c r="O44" s="58"/>
+      <c r="P44" s="11">
         <v>289</v>
       </c>
-      <c r="P44" s="12" t="s">
+      <c r="Q44" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R44" s="13"/>
+    </row>
+    <row r="45" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="20">
         <v>6</v>
       </c>
@@ -4143,16 +4243,17 @@
         <v>249</v>
       </c>
       <c r="M45" s="99"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="11">
+      <c r="N45" s="99"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="11">
         <v>284</v>
       </c>
-      <c r="P45" s="12" t="s">
+      <c r="Q45" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="R45" s="13"/>
+    </row>
+    <row r="46" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="20">
         <v>14</v>
       </c>
@@ -4184,18 +4285,19 @@
         <v>257</v>
       </c>
       <c r="M46" s="99"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="11">
+      <c r="N46" s="99"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="11">
         <v>279</v>
       </c>
-      <c r="P46" s="79" t="s">
+      <c r="Q46" s="79" t="s">
         <v>229</v>
       </c>
-      <c r="Q46" s="77" t="s">
+      <c r="R46" s="77" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>15</v>
       </c>
@@ -4227,16 +4329,17 @@
         <v>258</v>
       </c>
       <c r="M47" s="99"/>
-      <c r="N47" s="58"/>
-      <c r="O47" s="11">
+      <c r="N47" s="99"/>
+      <c r="O47" s="58"/>
+      <c r="P47" s="11">
         <v>278</v>
       </c>
-      <c r="P47" s="12" t="s">
+      <c r="Q47" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="R47" s="13"/>
+    </row>
+    <row r="48" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>22</v>
       </c>
@@ -4268,18 +4371,19 @@
         <v>267</v>
       </c>
       <c r="M48" s="99"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="11">
+      <c r="N48" s="99"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="11">
         <v>251</v>
       </c>
-      <c r="P48" s="79" t="s">
+      <c r="Q48" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="Q48" s="77" t="s">
+      <c r="R48" s="77" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>8</v>
       </c>
@@ -4298,7 +4402,7 @@
       <c r="F49" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="G49" s="89" t="s">
+      <c r="G49" s="135" t="s">
         <v>253</v>
       </c>
       <c r="H49" s="57"/>
@@ -4313,16 +4417,19 @@
       <c r="M49" s="99" t="s">
         <v>254</v>
       </c>
-      <c r="N49" s="58"/>
-      <c r="O49" s="11">
+      <c r="N49" s="99" t="s">
+        <v>307</v>
+      </c>
+      <c r="O49" s="58"/>
+      <c r="P49" s="11">
         <v>282</v>
       </c>
-      <c r="P49" s="79" t="s">
+      <c r="Q49" s="79" t="s">
         <v>245</v>
       </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="R49" s="13"/>
+    </row>
+    <row r="50" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="20">
         <v>18</v>
       </c>
@@ -4358,16 +4465,17 @@
       <c r="M50" s="99" t="s">
         <v>262</v>
       </c>
-      <c r="N50" s="58"/>
-      <c r="O50" s="11">
+      <c r="N50" s="99"/>
+      <c r="O50" s="58"/>
+      <c r="P50" s="11">
         <v>275</v>
       </c>
-      <c r="P50" s="12" t="s">
+      <c r="Q50" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R50" s="13"/>
+    </row>
+    <row r="51" spans="1:18" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20">
         <v>44</v>
       </c>
@@ -4397,19 +4505,20 @@
       <c r="K51" s="16"/>
       <c r="L51" s="94"/>
       <c r="M51" s="94"/>
-      <c r="N51" s="58"/>
-      <c r="O51" s="11">
+      <c r="N51" s="94"/>
+      <c r="O51" s="58"/>
+      <c r="P51" s="11">
         <v>57</v>
       </c>
-      <c r="P51" s="79" t="s">
+      <c r="Q51" s="79" t="s">
         <v>235</v>
       </c>
-      <c r="Q51" s="13" t="s">
+      <c r="R51" s="13" t="s">
         <v>236</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q51" xr:uid="{3DF40DF6-B99E-4639-A284-1FE2337A82B8}">
+  <autoFilter ref="A1:R51" xr:uid="{3DF40DF6-B99E-4639-A284-1FE2337A82B8}">
     <filterColumn colId="4">
       <filters>
         <filter val="later"/>
@@ -4425,7 +4534,7 @@
         <filter val="PMKL"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:Q50">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:R50">
       <sortCondition ref="G1:G51"/>
     </sortState>
   </autoFilter>
@@ -5251,7 +5360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7DF074-1205-4741-901C-DB9CCECBA167}">
   <dimension ref="A1:BB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE21" sqref="A1:AE21"/>
     </sheetView>
   </sheetViews>
@@ -5268,49 +5377,49 @@
       <c r="B1" s="101"/>
       <c r="C1" s="106"/>
       <c r="D1" s="109" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E1" s="101"/>
       <c r="F1" s="101"/>
       <c r="G1" s="106"/>
       <c r="H1" s="109" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I1" s="101"/>
       <c r="J1" s="101"/>
       <c r="K1" s="106"/>
       <c r="L1" s="109" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M1" s="101"/>
       <c r="N1" s="101"/>
       <c r="O1" s="106"/>
       <c r="P1" s="109" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q1" s="101"/>
       <c r="R1" s="101"/>
       <c r="S1" s="106"/>
       <c r="T1" s="109" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U1" s="101"/>
       <c r="V1" s="101"/>
       <c r="W1" s="106"/>
       <c r="X1" s="109" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y1" s="101"/>
       <c r="Z1" s="101"/>
       <c r="AA1" s="106"/>
       <c r="AB1" s="109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC1" s="101"/>
       <c r="AD1" s="101"/>
       <c r="AE1" s="106"/>
       <c r="AF1" s="114" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG1" s="112"/>
       <c r="AH1" s="112"/>
@@ -5457,7 +5566,7 @@
     </row>
     <row r="3" spans="1:54" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="108"/>
@@ -5515,7 +5624,7 @@
     </row>
     <row r="4" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="131" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B4" s="132"/>
       <c r="C4" s="107"/>
@@ -5573,7 +5682,7 @@
     </row>
     <row r="5" spans="1:54" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B5" s="121"/>
       <c r="C5" s="108"/>
@@ -5631,7 +5740,7 @@
     </row>
     <row r="6" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="131" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B6" s="126"/>
       <c r="C6" s="107"/>
@@ -5689,7 +5798,7 @@
     </row>
     <row r="7" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="131" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B7" s="126"/>
       <c r="C7" s="107"/>
@@ -5747,7 +5856,7 @@
     </row>
     <row r="8" spans="1:54" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="130" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B8" s="129"/>
       <c r="C8" s="108"/>
@@ -5861,18 +5970,18 @@
     </row>
     <row r="10" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="102" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B10" s="102"/>
       <c r="C10" s="107"/>
       <c r="D10" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E10" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F10" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G10" s="107"/>
       <c r="H10" s="110"/>
@@ -5925,23 +6034,23 @@
     </row>
     <row r="11" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="102" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B11" s="102"/>
       <c r="C11" s="107"/>
       <c r="D11" s="110"/>
       <c r="E11" s="102"/>
       <c r="F11" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G11" s="107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H11" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I11" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J11" s="102"/>
       <c r="K11" s="107"/>
@@ -5991,23 +6100,23 @@
     </row>
     <row r="12" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="102" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B12" s="102"/>
       <c r="C12" s="107"/>
       <c r="D12" s="110"/>
       <c r="E12" s="102"/>
       <c r="F12" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G12" s="107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H12" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I12" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J12" s="102"/>
       <c r="K12" s="107"/>
@@ -6057,25 +6166,25 @@
     </row>
     <row r="13" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="102" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B13" s="102"/>
       <c r="C13" s="107"/>
       <c r="D13" s="110"/>
       <c r="E13" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F13" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G13" s="107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H13" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I13" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J13" s="102"/>
       <c r="K13" s="107"/>
@@ -6125,25 +6234,25 @@
     </row>
     <row r="14" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="102" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B14" s="102"/>
       <c r="C14" s="107"/>
       <c r="D14" s="110"/>
       <c r="E14" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F14" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G14" s="107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H14" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I14" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J14" s="102"/>
       <c r="K14" s="107"/>
@@ -6193,22 +6302,22 @@
     </row>
     <row r="15" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B15" s="102"/>
       <c r="C15" s="107"/>
       <c r="D15" s="110"/>
       <c r="E15" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F15" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G15" s="107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H15" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I15" s="102"/>
       <c r="J15" s="102"/>
@@ -6259,25 +6368,25 @@
     </row>
     <row r="16" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="102" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B16" s="102"/>
       <c r="C16" s="107"/>
       <c r="D16" s="110"/>
       <c r="E16" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F16" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G16" s="107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H16" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I16" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J16" s="102"/>
       <c r="K16" s="107"/>
@@ -6327,25 +6436,25 @@
     </row>
     <row r="17" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B17" s="102"/>
       <c r="C17" s="107"/>
       <c r="D17" s="110"/>
       <c r="E17" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F17" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G17" s="107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H17" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I17" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J17" s="102"/>
       <c r="K17" s="107"/>
@@ -6395,21 +6504,21 @@
     </row>
     <row r="18" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="102" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B18" s="102"/>
       <c r="C18" s="107"/>
       <c r="D18" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E18" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F18" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G18" s="107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H18" s="110"/>
       <c r="I18" s="102"/>
@@ -6461,25 +6570,25 @@
     </row>
     <row r="19" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B19" s="102"/>
       <c r="C19" s="107"/>
       <c r="D19" s="110"/>
       <c r="E19" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F19" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G19" s="107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H19" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I19" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J19" s="102"/>
       <c r="K19" s="107"/>
@@ -6529,25 +6638,25 @@
     </row>
     <row r="20" spans="1:54" s="103" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B20" s="102"/>
       <c r="C20" s="107"/>
       <c r="D20" s="110"/>
       <c r="E20" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F20" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G20" s="107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H20" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I20" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J20" s="102"/>
       <c r="K20" s="107"/>
@@ -6597,7 +6706,7 @@
     </row>
     <row r="21" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="102" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B21" s="102"/>
       <c r="C21" s="107"/>
@@ -6606,10 +6715,10 @@
       <c r="F21" s="102"/>
       <c r="G21" s="107"/>
       <c r="H21" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I21" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J21" s="102"/>
       <c r="K21" s="107"/>

--- a/beheer van issues/GitHub geregistreerde issues 2020-04-01 v1.7 - publicatie_voorIIMKL_PMKL.xlsx
+++ b/beheer van issues/GitHub geregistreerde issues 2020-04-01 v1.7 - publicatie_voorIIMKL_PMKL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\beheer van issues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BB98C3-EECA-429C-9349-7E9FB939A2AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEC912E-5E7E-434C-859A-FDDA3370BE5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" xr2:uid="{FB381769-38D6-4077-9ECA-0963F4850A5C}"/>
+    <workbookView xWindow="-19320" yWindow="-8715" windowWidth="19440" windowHeight="15000" xr2:uid="{FB381769-38D6-4077-9ECA-0963F4850A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="TCS - 01-04-2020" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="315">
   <si>
     <t>Nr</t>
   </si>
@@ -1040,9 +1040,6 @@
     <t>klein, update x regels</t>
   </si>
   <si>
-    <t>niet nodig</t>
-  </si>
-  <si>
     <t>klein constraint</t>
   </si>
   <si>
@@ -1143,6 +1140,21 @@
   </si>
   <si>
     <t>klein waardelijst en cardinaliteit en constraint</t>
+  </si>
+  <si>
+    <t>constraint in xtra regels</t>
+  </si>
+  <si>
+    <t>geen effect op model</t>
+  </si>
+  <si>
+    <t>constraint is verwerkt</t>
+  </si>
+  <si>
+    <t>constraint in tekst opgenomen, geen ocl</t>
+  </si>
+  <si>
+    <t>constraint in xtraregels</t>
   </si>
 </sst>
 </file>
@@ -2330,10 +2342,10 @@
   <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2396,7 +2408,7 @@
       </c>
       <c r="M1" s="90"/>
       <c r="N1" s="90" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O1" s="62" t="s">
         <v>142</v>
@@ -2737,7 +2749,7 @@
         <v>254</v>
       </c>
       <c r="N10" s="99" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O10" s="58"/>
       <c r="P10" s="11">
@@ -2787,7 +2799,7 @@
         <v>256</v>
       </c>
       <c r="N11" s="99" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O11" s="58"/>
       <c r="P11" s="11">
@@ -2837,7 +2849,7 @@
         <v>256</v>
       </c>
       <c r="N12" s="99" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O12" s="58"/>
       <c r="P12" s="11">
@@ -3211,7 +3223,7 @@
         <v>270</v>
       </c>
       <c r="N21" s="99" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O21" s="58"/>
       <c r="P21" s="11">
@@ -3259,7 +3271,7 @@
         <v>273</v>
       </c>
       <c r="N22" s="99" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O22" s="58"/>
       <c r="P22" s="11">
@@ -3305,7 +3317,7 @@
         <v>254</v>
       </c>
       <c r="N23" s="99" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O23" s="58"/>
       <c r="P23" s="11">
@@ -3351,7 +3363,7 @@
         <v>270</v>
       </c>
       <c r="N24" s="99" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O24" s="58"/>
       <c r="P24" s="11">
@@ -3394,7 +3406,7 @@
         <v>275</v>
       </c>
       <c r="M25" s="99" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="N25" s="99"/>
       <c r="O25" s="58"/>
@@ -3523,7 +3535,7 @@
         <v>273</v>
       </c>
       <c r="N28" s="99" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O28" s="58"/>
       <c r="P28" s="11">
@@ -3563,7 +3575,7 @@
       <c r="J29" s="15"/>
       <c r="K29" s="96"/>
       <c r="L29" s="97" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="M29" s="99"/>
       <c r="N29" s="99"/>
@@ -3605,13 +3617,13 @@
       <c r="J30" s="15"/>
       <c r="K30" s="96"/>
       <c r="L30" s="97" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M30" s="99" t="s">
         <v>270</v>
       </c>
       <c r="N30" s="99" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O30" s="58"/>
       <c r="P30" s="11">
@@ -3674,12 +3686,14 @@
         <v>192</v>
       </c>
       <c r="L32" s="97" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M32" s="99" t="s">
         <v>270</v>
       </c>
-      <c r="N32" s="99"/>
+      <c r="N32" s="99" t="s">
+        <v>312</v>
+      </c>
       <c r="O32" s="58"/>
       <c r="P32" s="11">
         <v>195</v>
@@ -3719,7 +3733,7 @@
         <v>257</v>
       </c>
       <c r="M33" s="99" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N33" s="99"/>
       <c r="O33" s="58"/>
@@ -3766,7 +3780,7 @@
         <v>273</v>
       </c>
       <c r="N34" s="99" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O34" s="58"/>
       <c r="P34" s="11">
@@ -3808,10 +3822,10 @@
         <v>195</v>
       </c>
       <c r="L35" s="97" t="s">
+        <v>307</v>
+      </c>
+      <c r="M35" s="99" t="s">
         <v>308</v>
-      </c>
-      <c r="M35" s="99" t="s">
-        <v>309</v>
       </c>
       <c r="N35" s="99"/>
       <c r="O35" s="58"/>
@@ -3857,7 +3871,9 @@
       <c r="M36" s="99" t="s">
         <v>270</v>
       </c>
-      <c r="N36" s="99"/>
+      <c r="N36" s="99" t="s">
+        <v>313</v>
+      </c>
       <c r="O36" s="58"/>
       <c r="P36" s="11">
         <v>191</v>
@@ -3899,9 +3915,11 @@
         <v>257</v>
       </c>
       <c r="M37" s="99" t="s">
-        <v>270</v>
-      </c>
-      <c r="N37" s="99"/>
+        <v>314</v>
+      </c>
+      <c r="N37" s="99" t="s">
+        <v>306</v>
+      </c>
       <c r="O37" s="58"/>
       <c r="P37" s="11">
         <v>190</v>
@@ -4418,7 +4436,7 @@
         <v>254</v>
       </c>
       <c r="N49" s="99" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O49" s="58"/>
       <c r="P49" s="11">
@@ -5377,49 +5395,49 @@
       <c r="B1" s="101"/>
       <c r="C1" s="106"/>
       <c r="D1" s="109" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E1" s="101"/>
       <c r="F1" s="101"/>
       <c r="G1" s="106"/>
       <c r="H1" s="109" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I1" s="101"/>
       <c r="J1" s="101"/>
       <c r="K1" s="106"/>
       <c r="L1" s="109" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M1" s="101"/>
       <c r="N1" s="101"/>
       <c r="O1" s="106"/>
       <c r="P1" s="109" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q1" s="101"/>
       <c r="R1" s="101"/>
       <c r="S1" s="106"/>
       <c r="T1" s="109" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="U1" s="101"/>
       <c r="V1" s="101"/>
       <c r="W1" s="106"/>
       <c r="X1" s="109" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Y1" s="101"/>
       <c r="Z1" s="101"/>
       <c r="AA1" s="106"/>
       <c r="AB1" s="109" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AC1" s="101"/>
       <c r="AD1" s="101"/>
       <c r="AE1" s="106"/>
       <c r="AF1" s="114" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG1" s="112"/>
       <c r="AH1" s="112"/>
@@ -5566,7 +5584,7 @@
     </row>
     <row r="3" spans="1:54" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B3" s="133"/>
       <c r="C3" s="108"/>
@@ -5624,7 +5642,7 @@
     </row>
     <row r="4" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="131" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B4" s="132"/>
       <c r="C4" s="107"/>
@@ -5682,7 +5700,7 @@
     </row>
     <row r="5" spans="1:54" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B5" s="121"/>
       <c r="C5" s="108"/>
@@ -5740,7 +5758,7 @@
     </row>
     <row r="6" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="131" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B6" s="126"/>
       <c r="C6" s="107"/>
@@ -5798,7 +5816,7 @@
     </row>
     <row r="7" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="131" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B7" s="126"/>
       <c r="C7" s="107"/>
@@ -5856,7 +5874,7 @@
     </row>
     <row r="8" spans="1:54" s="105" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="130" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B8" s="129"/>
       <c r="C8" s="108"/>
@@ -5970,18 +5988,18 @@
     </row>
     <row r="10" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B10" s="102"/>
       <c r="C10" s="107"/>
       <c r="D10" s="110" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E10" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F10" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G10" s="107"/>
       <c r="H10" s="110"/>
@@ -6034,23 +6052,23 @@
     </row>
     <row r="11" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="102" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B11" s="102"/>
       <c r="C11" s="107"/>
       <c r="D11" s="110"/>
       <c r="E11" s="102"/>
       <c r="F11" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G11" s="107" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H11" s="110" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I11" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J11" s="102"/>
       <c r="K11" s="107"/>
@@ -6100,23 +6118,23 @@
     </row>
     <row r="12" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="102" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B12" s="102"/>
       <c r="C12" s="107"/>
       <c r="D12" s="110"/>
       <c r="E12" s="102"/>
       <c r="F12" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G12" s="107" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H12" s="110" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I12" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J12" s="102"/>
       <c r="K12" s="107"/>
@@ -6166,25 +6184,25 @@
     </row>
     <row r="13" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="102" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B13" s="102"/>
       <c r="C13" s="107"/>
       <c r="D13" s="110"/>
       <c r="E13" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F13" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G13" s="107" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H13" s="110" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I13" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J13" s="102"/>
       <c r="K13" s="107"/>
@@ -6234,25 +6252,25 @@
     </row>
     <row r="14" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B14" s="102"/>
       <c r="C14" s="107"/>
       <c r="D14" s="110"/>
       <c r="E14" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F14" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G14" s="107" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H14" s="110" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I14" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J14" s="102"/>
       <c r="K14" s="107"/>
@@ -6302,22 +6320,22 @@
     </row>
     <row r="15" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="102" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B15" s="102"/>
       <c r="C15" s="107"/>
       <c r="D15" s="110"/>
       <c r="E15" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F15" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G15" s="107" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H15" s="110" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I15" s="102"/>
       <c r="J15" s="102"/>
@@ -6368,25 +6386,25 @@
     </row>
     <row r="16" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B16" s="102"/>
       <c r="C16" s="107"/>
       <c r="D16" s="110"/>
       <c r="E16" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F16" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G16" s="107" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H16" s="110" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I16" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J16" s="102"/>
       <c r="K16" s="107"/>
@@ -6436,25 +6454,25 @@
     </row>
     <row r="17" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="102" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B17" s="102"/>
       <c r="C17" s="107"/>
       <c r="D17" s="110"/>
       <c r="E17" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F17" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G17" s="107" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H17" s="110" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I17" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J17" s="102"/>
       <c r="K17" s="107"/>
@@ -6504,21 +6522,21 @@
     </row>
     <row r="18" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="102" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B18" s="102"/>
       <c r="C18" s="107"/>
       <c r="D18" s="110" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E18" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F18" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G18" s="107" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H18" s="110"/>
       <c r="I18" s="102"/>
@@ -6570,25 +6588,25 @@
     </row>
     <row r="19" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B19" s="102"/>
       <c r="C19" s="107"/>
       <c r="D19" s="110"/>
       <c r="E19" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F19" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G19" s="107" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H19" s="110" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I19" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J19" s="102"/>
       <c r="K19" s="107"/>
@@ -6638,25 +6656,25 @@
     </row>
     <row r="20" spans="1:54" s="103" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B20" s="102"/>
       <c r="C20" s="107"/>
       <c r="D20" s="110"/>
       <c r="E20" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F20" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G20" s="107" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H20" s="110" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I20" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J20" s="102"/>
       <c r="K20" s="107"/>
@@ -6706,7 +6724,7 @@
     </row>
     <row r="21" spans="1:54" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="102" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B21" s="102"/>
       <c r="C21" s="107"/>
@@ -6715,10 +6733,10 @@
       <c r="F21" s="102"/>
       <c r="G21" s="107"/>
       <c r="H21" s="110" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I21" s="102" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J21" s="102"/>
       <c r="K21" s="107"/>
